--- a/lab9analysis.xlsx
+++ b/lab9analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1418fc52008665ae/Documents/2XC3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="11_F25DC773A252ABDACC104871315B59F85BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F83C4515-BBFB-42B2-95E6-3DF1B72F768B}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="11_F25DC773A252ABDACC104871315B59F85BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C1552EF-0108-4B15-8F04-97147FB15B9F}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,121 +381,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>8.0128731666669974</c:v>
+                  <c:v>1.5875726666666632</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1046107000001886</c:v>
+                  <c:v>2.2017742333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4294376999999541</c:v>
+                  <c:v>2.40281516666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3155574333328905</c:v>
+                  <c:v>2.2660659333333268</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4289775666663092</c:v>
+                  <c:v>2.3629028333333335</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6904000666660588</c:v>
+                  <c:v>2.3387498333333299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5310963999994129</c:v>
+                  <c:v>2.4109017333333269</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9423419666666861</c:v>
+                  <c:v>2.33559283333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.9488701999998703</c:v>
+                  <c:v>2.3303903333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.6101375333334227</c:v>
+                  <c:v>2.2372341666666533</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.5641722666671996</c:v>
+                  <c:v>2.3505669666666669</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.1280456666669698</c:v>
+                  <c:v>2.2157871333333166</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.4631421666666258</c:v>
+                  <c:v>2.1371544999999936</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.8403778666670361</c:v>
+                  <c:v>2.1294779666666699</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.7693884333336101</c:v>
+                  <c:v>2.1721237333333332</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.165062166666754</c:v>
+                  <c:v>2.1531626333333302</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.8595813666664336</c:v>
+                  <c:v>2.2536124000000033</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.1606286666665202</c:v>
+                  <c:v>2.1896951666666435</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.261746699999998</c:v>
+                  <c:v>2.1190169333333166</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.1663144333330475</c:v>
+                  <c:v>2.0813440999999768</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.91032323333335</c:v>
+                  <c:v>2.1660279333333166</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.3491209666669111</c:v>
+                  <c:v>2.2429264000000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.3754876999991925</c:v>
+                  <c:v>2.1468339666666831</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.6542327333336235</c:v>
+                  <c:v>2.1250888000000101</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.7218171666663666</c:v>
+                  <c:v>2.2138525333333097</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.75235843333272</c:v>
+                  <c:v>2.0901382666666701</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.8108668666663972</c:v>
+                  <c:v>2.1969341</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.2217083666661566</c:v>
+                  <c:v>2.0931566666666632</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.0921130333329794</c:v>
+                  <c:v>2.1813770999999966</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.0439244333338094</c:v>
+                  <c:v>2.1518498666666566</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.1433744333335172</c:v>
+                  <c:v>2.1925629333333565</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.1560974333333398</c:v>
+                  <c:v>2.1549118666666534</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.8894006666657006</c:v>
+                  <c:v>2.1940165333333299</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.2124018333330797</c:v>
+                  <c:v>2.14306113333333</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.1485593333333428</c:v>
+                  <c:v>2.1431337000000132</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.1691390333338241</c:v>
+                  <c:v>2.2032552666666567</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.1044719000001306</c:v>
+                  <c:v>2.2082513666666697</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.1372023666669193</c:v>
+                  <c:v>2.2378609999999868</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.5849347999998464</c:v>
+                  <c:v>2.1830970999999768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -676,121 +676,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>7.9902293666673296</c:v>
+                  <c:v>1.7248296333333302</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6469684333339165</c:v>
+                  <c:v>2.1667563666666632</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7601834999998802</c:v>
+                  <c:v>2.3868743999999964</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5996508666666998</c:v>
+                  <c:v>2.3770516333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.6868525666674605</c:v>
+                  <c:v>2.1954264666666568</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5756051000001499</c:v>
+                  <c:v>2.4881589666666533</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.1524349999999624</c:v>
+                  <c:v>2.5479897999999932</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.6125977333340371</c:v>
+                  <c:v>2.65221763333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5800204999995868</c:v>
+                  <c:v>2.1654301666666669</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.9160984333326807</c:v>
+                  <c:v>2.1866021666666633</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.9739824333337266</c:v>
+                  <c:v>2.0550407333333234</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.3131544000001041</c:v>
+                  <c:v>2.1760726666666734</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.9648103666665167</c:v>
+                  <c:v>2.1551730999999865</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.660334666665821</c:v>
+                  <c:v>2.20517629999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.3319579666664696</c:v>
+                  <c:v>2.0138364333333199</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.7987732333331161</c:v>
+                  <c:v>2.1593077666666631</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.2130523666667852</c:v>
+                  <c:v>2.0448284333333269</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.2889091333333127</c:v>
+                  <c:v>2.1786935333333268</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.72680386666676</c:v>
+                  <c:v>2.1320950333333499</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.0113826666668775</c:v>
+                  <c:v>2.2394286333333135</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.1394426000000095</c:v>
+                  <c:v>2.1168803666666665</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.3149175999994096</c:v>
+                  <c:v>2.2384679000000034</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.7690910000001061</c:v>
+                  <c:v>2.1132868666666664</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.7145792000004176</c:v>
+                  <c:v>2.1827830666666466</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.7660847333330141</c:v>
+                  <c:v>2.0749417666666701</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.5568641000002836</c:v>
+                  <c:v>2.1882743999999867</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.657535699999543</c:v>
+                  <c:v>2.109176299999977</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.5019730333339432</c:v>
+                  <c:v>2.2413139666666635</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.6772789333329703</c:v>
+                  <c:v>2.0546070333333502</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.3441056333328198</c:v>
+                  <c:v>2.1983982000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.2892938666670135</c:v>
+                  <c:v>2.0689375333333602</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.1012997333333798</c:v>
+                  <c:v>2.1609115666666732</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.7888076333329037</c:v>
+                  <c:v>2.0783322999999965</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.5856056333329107</c:v>
+                  <c:v>2.1741967</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.3234141666665229</c:v>
+                  <c:v>2.1504050666666568</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.7228176333331504</c:v>
+                  <c:v>2.1500258333333533</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.2890550666664495</c:v>
+                  <c:v>2.0456291666666231</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.5024089666664269</c:v>
+                  <c:v>2.0275339000000536</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.4555426333336072</c:v>
+                  <c:v>2.2103875666666268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -880,6 +880,7 @@
         <c:axId val="1737836272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="1.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1270,121 +1271,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>690.33333333333337</c:v>
+                  <c:v>5618.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>712</c:v>
+                  <c:v>7643.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>776</c:v>
+                  <c:v>6470</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>792.33333333333337</c:v>
+                  <c:v>4190.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>874.33333333333337</c:v>
+                  <c:v>4699.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>678.33333333333337</c:v>
+                  <c:v>5253.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>764.33333333333337</c:v>
+                  <c:v>5810</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>706</c:v>
+                  <c:v>4200.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>680.33333333333337</c:v>
+                  <c:v>6272.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>641.66666666666663</c:v>
+                  <c:v>6050</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>808.66666666666663</c:v>
+                  <c:v>4856.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>685.66666666666663</c:v>
+                  <c:v>4749.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>703.66666666666663</c:v>
+                  <c:v>6540.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>619.33333333333337</c:v>
+                  <c:v>5665.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>739.66666666666663</c:v>
+                  <c:v>4880.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>771.66666666666663</c:v>
+                  <c:v>5541.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>833.33333333333337</c:v>
+                  <c:v>6501</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>673.33333333333337</c:v>
+                  <c:v>5944</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>639.66666666666663</c:v>
+                  <c:v>4754.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>760.33333333333337</c:v>
+                  <c:v>5082.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>580</c:v>
+                  <c:v>5933.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>859</c:v>
+                  <c:v>5539</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>731.33333333333337</c:v>
+                  <c:v>5047.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>628</c:v>
+                  <c:v>5482</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>644.33333333333337</c:v>
+                  <c:v>4384.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>756.33333333333337</c:v>
+                  <c:v>4637</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>698.66666666666663</c:v>
+                  <c:v>4795.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>647</c:v>
+                  <c:v>5096.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>754</c:v>
+                  <c:v>4664</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>614.66666666666663</c:v>
+                  <c:v>4348.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>611.66666666666663</c:v>
+                  <c:v>5489</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>611.66666666666663</c:v>
+                  <c:v>6460.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>764</c:v>
+                  <c:v>5236</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>622.66666666666663</c:v>
+                  <c:v>5546.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>602</c:v>
+                  <c:v>4281.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>785.33333333333337</c:v>
+                  <c:v>5937.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>669</c:v>
+                  <c:v>4886.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>689.33333333333337</c:v>
+                  <c:v>5098.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>662.66666666666663</c:v>
+                  <c:v>6127.666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,121 +1566,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>251547.33333333334</c:v>
+                  <c:v>2365520</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45135.666666666664</c:v>
+                  <c:v>420003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17491.333333333332</c:v>
+                  <c:v>138471.33333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8809</c:v>
+                  <c:v>92196.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5455.333333333333</c:v>
+                  <c:v>45541</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3185</c:v>
+                  <c:v>47629.333333333336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4095.6666666666665</c:v>
+                  <c:v>33621.333333333336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3112.6666666666665</c:v>
+                  <c:v>34338.666666666664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2569</c:v>
+                  <c:v>24986.666666666668</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1550</c:v>
+                  <c:v>22288</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2577</c:v>
+                  <c:v>22911.666666666668</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1840.6666666666667</c:v>
+                  <c:v>19145.333333333332</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1432</c:v>
+                  <c:v>17743</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1664.3333333333333</c:v>
+                  <c:v>15844.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1176</c:v>
+                  <c:v>14659.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1887</c:v>
+                  <c:v>19067.666666666668</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1379.3333333333333</c:v>
+                  <c:v>13877</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1434.3333333333333</c:v>
+                  <c:v>13309.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1874</c:v>
+                  <c:v>17863.666666666668</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1436.3333333333333</c:v>
+                  <c:v>13204.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>976.33333333333337</c:v>
+                  <c:v>8843.6666666666661</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1035.6666666666667</c:v>
+                  <c:v>8075.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1040.6666666666667</c:v>
+                  <c:v>11340</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>759.66666666666663</c:v>
+                  <c:v>9297.3333333333339</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>857.66666666666663</c:v>
+                  <c:v>6129.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1084.3333333333333</c:v>
+                  <c:v>13484.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1329</c:v>
+                  <c:v>7019</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1119.6666666666667</c:v>
+                  <c:v>7282</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1101</c:v>
+                  <c:v>8732</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>928</c:v>
+                  <c:v>6857.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>802.66666666666663</c:v>
+                  <c:v>8245</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>909</c:v>
+                  <c:v>7364.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1039.6666666666667</c:v>
+                  <c:v>7441</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>935</c:v>
+                  <c:v>8929.6666666666661</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>922</c:v>
+                  <c:v>7634.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1018.6666666666666</c:v>
+                  <c:v>7931</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>777</c:v>
+                  <c:v>7990.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>879.66666666666663</c:v>
+                  <c:v>5971.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>856.66666666666663</c:v>
+                  <c:v>7551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2131,121 +2132,121 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.99717407232977751</c:v>
+                  <c:v>1.0864571238523888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94353309694859722</c:v>
+                  <c:v>0.98409561428391512</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90991859316619905</c:v>
+                  <c:v>0.9933657957183708</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88664396227517361</c:v>
+                  <c:v>1.0489772598261293</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88456562613521905</c:v>
+                  <c:v>0.92912261803401419</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83337394542066145</c:v>
+                  <c:v>1.0638841876988512</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94202177141352794</c:v>
+                  <c:v>1.0568617396434186</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.80845884001143264</c:v>
+                  <c:v>1.1355650674557505</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.80301118590468001</c:v>
+                  <c:v>0.92921350371776068</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.90880071523533479</c:v>
+                  <c:v>0.97736848437487045</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.92197562237784514</c:v>
+                  <c:v>0.87427448886834802</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.025969072308103</c:v>
+                  <c:v>0.98207658756150518</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9332276152763298</c:v>
+                  <c:v>1.0084311171700469</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.97703641290470711</c:v>
+                  <c:v>1.0355478359101375</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.94369821120148933</c:v>
+                  <c:v>0.92712786220649313</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.95513948015864658</c:v>
+                  <c:v>1.0028540033336077</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.04497326047154</c:v>
+                  <c:v>0.90735586711065486</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0157194343605875</c:v>
+                  <c:v>0.99497572378987142</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.93525063733396252</c:v>
+                  <c:v>1.006171777013344</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.98102794498901813</c:v>
+                  <c:v>1.0759530984489005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0289646023187993</c:v>
+                  <c:v>0.9773098186268464</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.99590335715531553</c:v>
+                  <c:v>0.99801219513935147</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0419821680317438</c:v>
+                  <c:v>0.98437368677741566</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.89142266422834571</c:v>
+                  <c:v>1.0271491086239013</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.0057327913509455</c:v>
+                  <c:v>0.9372538303364375</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.97478259873900153</c:v>
+                  <c:v>1.0469519815499206</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.9803695070874644</c:v>
+                  <c:v>0.96005442311627687</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.91245915067356487</c:v>
+                  <c:v>1.0707817538741329</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.93190636849148312</c:v>
+                  <c:v>0.94188530416559035</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.88421119295580408</c:v>
+                  <c:v>1.0216317755501454</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.86097533595993714</c:v>
+                  <c:v>0.94361603121145154</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.99109863016409594</c:v>
+                  <c:v>1.0027841973923974</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.84024836316197926</c:v>
+                  <c:v>0.94727285251694227</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.89910565722953562</c:v>
+                  <c:v>1.0145285480579089</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.86579861689006732</c:v>
+                  <c:v>1.0033928665610752</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.0897497360665118</c:v>
+                  <c:v>0.97584055096174349</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.88522484924830713</c:v>
+                  <c:v>0.92635702508563467</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.89656632418571436</c:v>
+                  <c:v>0.90601422519095942</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.98492799657998087</c:v>
+                  <c:v>1.0125008029494658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4132,7 +4133,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="5" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C26C422-536A-440A-AC38-E1FE9E54F720}"/>
@@ -4493,10 +4494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O119"/>
+  <dimension ref="B1:O236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:L119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4569,10 +4570,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>8.0293115000004001</v>
+        <v>1.43960639999999</v>
       </c>
       <c r="D3">
-        <v>8.53378100000009</v>
+        <v>1.5587050999999901</v>
       </c>
       <c r="E3" s="2">
         <f ca="1">AVERAGE(OFFSET($B$3,(ROW()-ROW($E$3))*3,,3,))</f>
@@ -4580,24 +4581,24 @@
       </c>
       <c r="F3">
         <f ca="1">AVERAGE(OFFSET($C$3,(ROW()-ROW($F$3))*3,,3,))</f>
-        <v>8.0128731666669974</v>
+        <v>1.5875726666666632</v>
       </c>
       <c r="G3">
         <f ca="1">AVERAGE(OFFSET($D$3,(ROW()-ROW($G$3))*3,,3,))</f>
-        <v>7.9902293666673296</v>
+        <v>1.7248296333333302</v>
       </c>
       <c r="H3">
         <f ca="1">G3/F3</f>
-        <v>0.99717407232977751</v>
+        <v>1.0864571238523888</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>721</v>
+        <v>5829</v>
       </c>
       <c r="L3">
-        <v>261620</v>
+        <v>2279838</v>
       </c>
       <c r="M3">
         <f ca="1">AVERAGE(OFFSET($J$3,(ROW()-ROW($M$3))*3,,3,))</f>
@@ -4605,11 +4606,11 @@
       </c>
       <c r="N3">
         <f ca="1">AVERAGE(OFFSET($K$3,(ROW()-ROW($N$3))*3,,3,))</f>
-        <v>690.33333333333337</v>
+        <v>5618.333333333333</v>
       </c>
       <c r="O3">
         <f ca="1">AVERAGE(OFFSET($L$3,(ROW()-ROW($O$3))*3,,3,))</f>
-        <v>251547.33333333334</v>
+        <v>2365520</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
@@ -4617,47 +4618,47 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>7.8197703000005196</v>
+        <v>1.4809546</v>
       </c>
       <c r="D4">
-        <v>7.84001510000052</v>
+        <v>1.58833</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E41" ca="1" si="0">AVERAGE(OFFSET($B$3,(ROW()-ROW($E$3))*3,,3,))</f>
+        <f t="shared" ref="E4:E39" ca="1" si="0">AVERAGE(OFFSET($B$3,(ROW()-ROW($E$3))*3,,3,))</f>
         <v>2</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F41" ca="1" si="1">AVERAGE(OFFSET($C$3,(ROW()-ROW($F$3))*3,,3,))</f>
-        <v>8.1046107000001886</v>
+        <v>2.2017742333333334</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G41" ca="1" si="2">AVERAGE(OFFSET($D$3,(ROW()-ROW($G$3))*3,,3,))</f>
-        <v>7.6469684333339165</v>
+        <v>2.1667563666666632</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H41" ca="1" si="3">G4/F4</f>
-        <v>0.94353309694859722</v>
+        <v>0.98409561428391512</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>674</v>
+        <v>6666</v>
       </c>
       <c r="L4">
-        <v>251390</v>
+        <v>2544405</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M44" ca="1" si="4">AVERAGE(OFFSET($J$3,(ROW()-ROW($M$3))*3,,3,))</f>
+        <f t="shared" ref="M4:M41" ca="1" si="4">AVERAGE(OFFSET($J$3,(ROW()-ROW($M$3))*3,,3,))</f>
         <v>2</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N41" ca="1" si="5">AVERAGE(OFFSET($K$3,(ROW()-ROW($N$3))*3,,3,))</f>
-        <v>712</v>
+        <v>7643.333333333333</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4:O41" ca="1" si="6">AVERAGE(OFFSET($L$3,(ROW()-ROW($O$3))*3,,3,))</f>
-        <v>45135.666666666664</v>
+        <v>420003</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
@@ -4665,10 +4666,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>8.18953770000007</v>
+        <v>1.842157</v>
       </c>
       <c r="D5">
-        <v>7.5968920000013798</v>
+        <v>2.0274538</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4676,24 +4677,24 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4294376999999541</v>
+        <v>2.40281516666666</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="2"/>
-        <v>6.7601834999998802</v>
+        <v>2.3868743999999964</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90991859316619905</v>
+        <v>0.9933657957183708</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>676</v>
+        <v>4360</v>
       </c>
       <c r="L5">
-        <v>241632</v>
+        <v>2272317</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="4"/>
@@ -4701,11 +4702,11 @@
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="5"/>
-        <v>776</v>
+        <v>6470</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="6"/>
-        <v>17491.333333333332</v>
+        <v>138471.33333333334</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
@@ -4713,10 +4714,10 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>8.1674036000003891</v>
+        <v>1.8335158</v>
       </c>
       <c r="D6">
-        <v>7.4131589000007798</v>
+        <v>1.7498476999999999</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4724,24 +4725,24 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3155574333328905</v>
+        <v>2.2660659333333268</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="2"/>
-        <v>5.5996508666666998</v>
+        <v>2.3770516333333336</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88664396227517361</v>
+        <v>1.0489772598261293</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6">
-        <v>814</v>
+        <v>7578</v>
       </c>
       <c r="L6">
-        <v>49727</v>
+        <v>466435</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="4"/>
@@ -4749,11 +4750,11 @@
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="5"/>
-        <v>792.33333333333337</v>
+        <v>4190.666666666667</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="6"/>
-        <v>8809</v>
+        <v>92196.666666666672</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
@@ -4761,10 +4762,10 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>8.10991459999968</v>
+        <v>1.9922150000000001</v>
       </c>
       <c r="D7">
-        <v>7.8730408999999701</v>
+        <v>2.1457692000000002</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4772,24 +4773,24 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4289775666663092</v>
+        <v>2.3629028333333335</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6868525666674605</v>
+        <v>2.1954264666666568</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88456562613521905</v>
+        <v>0.92912261803401419</v>
       </c>
       <c r="J7">
         <v>2</v>
       </c>
       <c r="K7">
-        <v>674</v>
+        <v>9382</v>
       </c>
       <c r="L7">
-        <v>44381</v>
+        <v>375097</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="4"/>
@@ -4797,11 +4798,11 @@
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="5"/>
-        <v>874.33333333333337</v>
+        <v>4699.666666666667</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="6"/>
-        <v>5455.333333333333</v>
+        <v>45541</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
@@ -4809,10 +4810,10 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>8.0365139000005001</v>
+        <v>2.7795918999999998</v>
       </c>
       <c r="D8">
-        <v>7.6547055000009996</v>
+        <v>2.6046521999999901</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4820,24 +4821,24 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6904000666660588</v>
+        <v>2.3387498333333299</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="2"/>
-        <v>5.5756051000001499</v>
+        <v>2.4881589666666533</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83337394542066145</v>
+        <v>1.0638841876988512</v>
       </c>
       <c r="J8">
         <v>2</v>
       </c>
       <c r="K8">
-        <v>648</v>
+        <v>5970</v>
       </c>
       <c r="L8">
-        <v>41299</v>
+        <v>418477</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="4"/>
@@ -4845,11 +4846,11 @@
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="5"/>
-        <v>678.33333333333337</v>
+        <v>5253.333333333333</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="6"/>
-        <v>3185</v>
+        <v>47629.333333333336</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
@@ -4857,10 +4858,10 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>8.2780246000001991</v>
+        <v>2.2625484999999901</v>
       </c>
       <c r="D9">
-        <v>7.76857029999882</v>
+        <v>2.1455272000000001</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4868,24 +4869,24 @@
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5310963999994129</v>
+        <v>2.4109017333333269</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1524349999999624</v>
+        <v>2.5479897999999932</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94202177141352794</v>
+        <v>1.0568617396434186</v>
       </c>
       <c r="J9">
         <v>3</v>
       </c>
       <c r="K9">
-        <v>650</v>
+        <v>9250</v>
       </c>
       <c r="L9">
-        <v>17970</v>
+        <v>136851</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="4"/>
@@ -4893,11 +4894,11 @@
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="5"/>
-        <v>764.33333333333337</v>
+        <v>5810</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="6"/>
-        <v>4095.6666666666665</v>
+        <v>33621.333333333336</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
@@ -4905,10 +4906,10 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>7.3173265000004903</v>
+        <v>2.1068056999999998</v>
       </c>
       <c r="D10">
-        <v>5.7917011999997996</v>
+        <v>2.4663241</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4916,24 +4917,24 @@
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9423419666666861</v>
+        <v>2.33559283333333</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6125977333340371</v>
+        <v>2.65221763333333</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80845884001143264</v>
+        <v>1.1355650674557505</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
       <c r="K10">
-        <v>1129</v>
+        <v>3627</v>
       </c>
       <c r="L10">
-        <v>17043</v>
+        <v>124707</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="4"/>
@@ -4941,11 +4942,11 @@
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="5"/>
-        <v>706</v>
+        <v>4200.666666666667</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="6"/>
-        <v>3112.6666666666665</v>
+        <v>34338.666666666664</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
@@ -4953,10 +4954,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>6.6929619999991701</v>
+        <v>2.83909129999999</v>
       </c>
       <c r="D11">
-        <v>6.7202790000010202</v>
+        <v>2.54877189999999</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4964,24 +4965,24 @@
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9488701999998703</v>
+        <v>2.3303903333333333</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="2"/>
-        <v>5.5800204999995868</v>
+        <v>2.1654301666666669</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80301118590468001</v>
+        <v>0.92921350371776068</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
       <c r="K11">
-        <v>549</v>
+        <v>6533</v>
       </c>
       <c r="L11">
-        <v>17461</v>
+        <v>153856</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="4"/>
@@ -4989,11 +4990,11 @@
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="5"/>
-        <v>680.33333333333337</v>
+        <v>6272.333333333333</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="6"/>
-        <v>2569</v>
+        <v>24986.666666666668</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
@@ -5001,10 +5002,10 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>6.2516350999994703</v>
+        <v>2.0769837999999998</v>
       </c>
       <c r="D12">
-        <v>5.6617841000006504</v>
+        <v>2.3990021000000001</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5012,24 +5013,24 @@
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>7.6101375333334227</v>
+        <v>2.2372341666666533</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="2"/>
-        <v>6.9160984333326807</v>
+        <v>2.1866021666666633</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90880071523533479</v>
+        <v>0.97736848437487045</v>
       </c>
       <c r="J12">
         <v>4</v>
       </c>
       <c r="K12">
-        <v>828</v>
+        <v>4824</v>
       </c>
       <c r="L12">
-        <v>10247</v>
+        <v>124744</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="4"/>
@@ -5037,11 +5038,11 @@
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="5"/>
-        <v>641.66666666666663</v>
+        <v>6050</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="6"/>
-        <v>1550</v>
+        <v>22288</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
@@ -5049,10 +5050,10 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>6.3729579999999197</v>
+        <v>2.4466027999999902</v>
       </c>
       <c r="D13">
-        <v>5.6256907999995702</v>
+        <v>2.4736227999999998</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5060,24 +5061,24 @@
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5641722666671996</v>
+        <v>2.3505669666666669</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="2"/>
-        <v>6.9739824333337266</v>
+        <v>2.0550407333333234</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92197562237784514</v>
+        <v>0.87427448886834802</v>
       </c>
       <c r="J13">
         <v>4</v>
       </c>
       <c r="K13">
-        <v>689</v>
+        <v>3781</v>
       </c>
       <c r="L13">
-        <v>8803</v>
+        <v>77415</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="4"/>
@@ -5085,11 +5086,11 @@
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="5"/>
-        <v>808.66666666666663</v>
+        <v>4856.333333333333</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="6"/>
-        <v>2577</v>
+        <v>22911.666666666668</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
@@ -5097,10 +5098,10 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <v>6.3220791999992798</v>
+        <v>2.2746111999999901</v>
       </c>
       <c r="D14">
-        <v>5.5114776999998796</v>
+        <v>2.2585299999999999</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5108,24 +5109,24 @@
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1280456666669698</v>
+        <v>2.2157871333333166</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="2"/>
-        <v>7.3131544000001041</v>
+        <v>2.1760726666666734</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.025969072308103</v>
+        <v>0.98207658756150518</v>
       </c>
       <c r="J14">
         <v>4</v>
       </c>
       <c r="K14">
-        <v>860</v>
+        <v>3967</v>
       </c>
       <c r="L14">
-        <v>7377</v>
+        <v>74431</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="4"/>
@@ -5133,11 +5134,11 @@
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="5"/>
-        <v>685.66666666666663</v>
+        <v>4749.666666666667</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="6"/>
-        <v>1840.6666666666667</v>
+        <v>19145.333333333332</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
@@ -5145,10 +5146,10 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>6.3524796999990896</v>
+        <v>2.2302493999999999</v>
       </c>
       <c r="D15">
-        <v>5.7123557000013498</v>
+        <v>2.0513042999999902</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5156,24 +5157,24 @@
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>7.4631421666666258</v>
+        <v>2.1371544999999936</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>6.9648103666665167</v>
+        <v>2.1551730999999865</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9332276152763298</v>
+        <v>1.0084311171700469</v>
       </c>
       <c r="J15">
         <v>5</v>
       </c>
       <c r="K15">
-        <v>883</v>
+        <v>5466</v>
       </c>
       <c r="L15">
-        <v>5461</v>
+        <v>35058</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="4"/>
@@ -5181,11 +5182,11 @@
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="5"/>
-        <v>703.66666666666663</v>
+        <v>6540.333333333333</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="6"/>
-        <v>1432</v>
+        <v>17743</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
@@ -5193,10 +5194,10 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>6.3920760000000802</v>
+        <v>2.3015374</v>
       </c>
       <c r="D16">
-        <v>5.7401202000000904</v>
+        <v>2.1600637999999801</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5204,24 +5205,24 @@
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8403778666670361</v>
+        <v>2.1294779666666699</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
-        <v>7.660334666665821</v>
+        <v>2.20517629999999</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97703641290470711</v>
+        <v>1.0355478359101375</v>
       </c>
       <c r="J16">
         <v>5</v>
       </c>
       <c r="K16">
-        <v>921</v>
+        <v>4845</v>
       </c>
       <c r="L16">
-        <v>5679</v>
+        <v>69916</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="4"/>
@@ -5229,11 +5230,11 @@
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="5"/>
-        <v>619.33333333333337</v>
+        <v>5665.666666666667</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="6"/>
-        <v>1664.3333333333333</v>
+        <v>15844.666666666666</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
@@ -5241,10 +5242,10 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>6.5423769999997603</v>
+        <v>2.5569217000000002</v>
       </c>
       <c r="D17">
-        <v>5.6080818000009396</v>
+        <v>2.3749112999999999</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5252,24 +5253,24 @@
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7693884333336101</v>
+        <v>2.1721237333333332</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="2"/>
-        <v>7.3319579666664696</v>
+        <v>2.0138364333333199</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94369821120148933</v>
+        <v>0.92712786220649313</v>
       </c>
       <c r="J17">
         <v>5</v>
       </c>
       <c r="K17">
-        <v>819</v>
+        <v>3788</v>
       </c>
       <c r="L17">
-        <v>5226</v>
+        <v>31649</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="4"/>
@@ -5277,11 +5278,11 @@
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="5"/>
-        <v>739.66666666666663</v>
+        <v>4880.666666666667</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="6"/>
-        <v>1176</v>
+        <v>14659.333333333334</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
@@ -5289,10 +5290,10 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>6.3911943000002696</v>
+        <v>2.2783398000000101</v>
       </c>
       <c r="D18">
-        <v>5.3693447999994497</v>
+        <v>2.2692990999999898</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5300,24 +5301,24 @@
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>8.165062166666754</v>
+        <v>2.1531626333333302</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="2"/>
-        <v>7.7987732333331161</v>
+        <v>2.1593077666666631</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95513948015864658</v>
+        <v>1.0028540033336077</v>
       </c>
       <c r="J18">
         <v>6</v>
       </c>
       <c r="K18">
-        <v>769</v>
+        <v>5260</v>
       </c>
       <c r="L18">
-        <v>3524</v>
+        <v>55363</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="4"/>
@@ -5325,11 +5326,11 @@
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="5"/>
-        <v>771.66666666666663</v>
+        <v>5541.666666666667</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="6"/>
-        <v>1887</v>
+        <v>19067.666666666668</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
@@ -5337,10 +5338,10 @@
         <v>6</v>
       </c>
       <c r="C19">
-        <v>6.4685617999984899</v>
+        <v>2.3277387999999899</v>
       </c>
       <c r="D19">
-        <v>5.6760996000011801</v>
+        <v>2.6191770999999799</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5348,24 +5349,24 @@
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8595813666664336</v>
+        <v>2.2536124000000033</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="2"/>
-        <v>8.2130523666667852</v>
+        <v>2.0448284333333269</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="3"/>
-        <v>1.04497326047154</v>
+        <v>0.90735586711065486</v>
       </c>
       <c r="J19">
         <v>6</v>
       </c>
       <c r="K19">
-        <v>645</v>
+        <v>4883</v>
       </c>
       <c r="L19">
-        <v>2670</v>
+        <v>43841</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="4"/>
@@ -5373,11 +5374,11 @@
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="5"/>
-        <v>833.33333333333337</v>
+        <v>6501</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="6"/>
-        <v>1379.3333333333333</v>
+        <v>13877</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
@@ -5385,10 +5386,10 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>7.2114440999994196</v>
+        <v>2.41017089999999</v>
       </c>
       <c r="D20">
-        <v>5.6813708999998198</v>
+        <v>2.57600069999999</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5396,24 +5397,24 @@
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1606286666665202</v>
+        <v>2.1896951666666435</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>8.2889091333333127</v>
+        <v>2.1786935333333268</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0157194343605875</v>
+        <v>0.99497572378987142</v>
       </c>
       <c r="J20">
         <v>6</v>
       </c>
       <c r="K20">
-        <v>621</v>
+        <v>5617</v>
       </c>
       <c r="L20">
-        <v>3361</v>
+        <v>43684</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="4"/>
@@ -5421,11 +5422,11 @@
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="5"/>
-        <v>673.33333333333337</v>
+        <v>5944</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="6"/>
-        <v>1434.3333333333333</v>
+        <v>13309.666666666666</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
@@ -5433,10 +5434,10 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <v>6.3788901999996597</v>
+        <v>2.1713895999999901</v>
       </c>
       <c r="D21">
-        <v>6.5940198999996902</v>
+        <v>2.8270894999999898</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5444,24 +5445,24 @@
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>8.261746699999998</v>
+        <v>2.1190169333333166</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
-        <v>7.72680386666676</v>
+        <v>2.1320950333333499</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93525063733396252</v>
+        <v>1.006171777013344</v>
       </c>
       <c r="J21">
         <v>7</v>
       </c>
       <c r="K21">
-        <v>689</v>
+        <v>7500</v>
       </c>
       <c r="L21">
-        <v>3811</v>
+        <v>34029</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="4"/>
@@ -5469,11 +5470,11 @@
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="5"/>
-        <v>639.66666666666663</v>
+        <v>4754.333333333333</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="6"/>
-        <v>1874</v>
+        <v>17863.666666666668</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
@@ -5481,10 +5482,10 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>6.5383475999988097</v>
+        <v>2.4462402999999902</v>
       </c>
       <c r="D22">
-        <v>6.2710838000002598</v>
+        <v>2.5672849000000002</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5492,24 +5493,24 @@
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1663144333330475</v>
+        <v>2.0813440999999768</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="2"/>
-        <v>8.0113826666668775</v>
+        <v>2.2394286333333135</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98102794498901813</v>
+        <v>1.0759530984489005</v>
       </c>
       <c r="J22">
         <v>7</v>
       </c>
       <c r="K22">
-        <v>826</v>
+        <v>6073</v>
       </c>
       <c r="L22">
-        <v>4480</v>
+        <v>46340</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="4"/>
@@ -5517,11 +5518,11 @@
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="5"/>
-        <v>760.33333333333337</v>
+        <v>5082.666666666667</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="6"/>
-        <v>1436.3333333333333</v>
+        <v>13204.333333333334</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
@@ -5529,10 +5530,10 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>6.6760513999997704</v>
+        <v>2.6150753</v>
       </c>
       <c r="D23">
-        <v>5.5922012999999398</v>
+        <v>2.24959499999999</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5540,24 +5541,24 @@
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>7.91032323333335</v>
+        <v>2.1660279333333166</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1394426000000095</v>
+        <v>2.1168803666666665</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0289646023187993</v>
+        <v>0.9773098186268464</v>
       </c>
       <c r="J23">
         <v>7</v>
       </c>
       <c r="K23">
-        <v>778</v>
+        <v>3857</v>
       </c>
       <c r="L23">
-        <v>3996</v>
+        <v>20495</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="4"/>
@@ -5565,11 +5566,11 @@
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="5"/>
-        <v>580</v>
+        <v>5933.333333333333</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="6"/>
-        <v>976.33333333333337</v>
+        <v>8843.6666666666661</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
@@ -5577,10 +5578,10 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>6.3532137000001896</v>
+        <v>2.2205262000000001</v>
       </c>
       <c r="D24">
-        <v>5.4722437000000301</v>
+        <v>2.68423389999999</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5588,24 +5589,24 @@
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>8.3491209666669111</v>
+        <v>2.2429264000000004</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="2"/>
-        <v>8.3149175999994096</v>
+        <v>2.2384679000000034</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99590335715531553</v>
+        <v>0.99801219513935147</v>
       </c>
       <c r="J24">
         <v>8</v>
       </c>
       <c r="K24">
-        <v>757</v>
+        <v>4184</v>
       </c>
       <c r="L24">
-        <v>2612</v>
+        <v>26381</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="4"/>
@@ -5613,11 +5614,11 @@
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="5"/>
-        <v>859</v>
+        <v>5539</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="6"/>
-        <v>1035.6666666666667</v>
+        <v>8075.666666666667</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
@@ -5625,10 +5626,10 @@
         <v>8</v>
       </c>
       <c r="C25">
-        <v>7.1492543999993297</v>
+        <v>2.4846543999999802</v>
       </c>
       <c r="D25">
-        <v>5.7700022000008104</v>
+        <v>2.8160699999999901</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5636,24 +5637,24 @@
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3754876999991925</v>
+        <v>2.1468339666666831</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="2"/>
-        <v>9.7690910000001061</v>
+        <v>2.1132868666666664</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0419821680317438</v>
+        <v>0.98437368677741566</v>
       </c>
       <c r="J25">
         <v>8</v>
       </c>
       <c r="K25">
-        <v>761</v>
+        <v>3129</v>
       </c>
       <c r="L25">
-        <v>3964</v>
+        <v>30456</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="4"/>
@@ -5661,11 +5662,11 @@
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="5"/>
-        <v>731.33333333333337</v>
+        <v>5047.333333333333</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="6"/>
-        <v>1040.6666666666667</v>
+        <v>11340</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
@@ -5673,10 +5674,10 @@
         <v>8</v>
       </c>
       <c r="C26">
-        <v>7.32455780000054</v>
+        <v>2.3015979000000102</v>
       </c>
       <c r="D26">
-        <v>5.5955473000012699</v>
+        <v>2.4563490000000101</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5684,24 +5685,24 @@
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6542327333336235</v>
+        <v>2.1250888000000101</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="2"/>
-        <v>7.7145792000004176</v>
+        <v>2.1827830666666466</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89142266422834571</v>
+        <v>1.0271491086239013</v>
       </c>
       <c r="J26">
         <v>8</v>
       </c>
       <c r="K26">
-        <v>600</v>
+        <v>5289</v>
       </c>
       <c r="L26">
-        <v>2762</v>
+        <v>46179</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="4"/>
@@ -5709,11 +5710,11 @@
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="5"/>
-        <v>628</v>
+        <v>5482</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="6"/>
-        <v>759.66666666666663</v>
+        <v>9297.3333333333339</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
@@ -5721,10 +5722,10 @@
         <v>9</v>
       </c>
       <c r="C27">
-        <v>6.5108216999997204</v>
+        <v>2.3324058000000001</v>
       </c>
       <c r="D27">
-        <v>5.4407534000001698</v>
+        <v>2.3117344000000002</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5732,24 +5733,24 @@
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7218171666663666</v>
+        <v>2.2138525333333097</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="2"/>
-        <v>7.7660847333330141</v>
+        <v>2.0749417666666701</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0057327913509455</v>
+        <v>0.9372538303364375</v>
       </c>
       <c r="J27">
         <v>9</v>
       </c>
       <c r="K27">
-        <v>636</v>
+        <v>7688</v>
       </c>
       <c r="L27">
-        <v>2695</v>
+        <v>28832</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="4"/>
@@ -5757,11 +5758,11 @@
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="5"/>
-        <v>644.33333333333337</v>
+        <v>4384.666666666667</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="6"/>
-        <v>857.66666666666663</v>
+        <v>6129.666666666667</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
@@ -5769,10 +5770,10 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <v>7.0322981999997802</v>
+        <v>2.2415286999999999</v>
       </c>
       <c r="D28">
-        <v>5.7269766999997902</v>
+        <v>2.2119968000000001</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5780,24 +5781,24 @@
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>7.75235843333272</v>
+        <v>2.0901382666666701</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="2"/>
-        <v>7.5568641000002836</v>
+        <v>2.1882743999999867</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97478259873900153</v>
+        <v>1.0469519815499206</v>
       </c>
       <c r="J28">
         <v>9</v>
       </c>
       <c r="K28">
-        <v>572</v>
+        <v>6244</v>
       </c>
       <c r="L28">
-        <v>2165</v>
+        <v>14547</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="4"/>
@@ -5805,11 +5806,11 @@
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="5"/>
-        <v>756.33333333333337</v>
+        <v>4637</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="6"/>
-        <v>1084.3333333333333</v>
+        <v>13484.333333333334</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
@@ -5817,10 +5818,10 @@
         <v>9</v>
       </c>
       <c r="C29">
-        <v>7.3034907000001104</v>
+        <v>2.4172365</v>
       </c>
       <c r="D29">
-        <v>5.5723313999987996</v>
+        <v>1.9725592999999999</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5828,24 +5829,24 @@
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8108668666663972</v>
+        <v>2.1969341</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="2"/>
-        <v>7.657535699999543</v>
+        <v>2.109176299999977</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9803695070874644</v>
+        <v>0.96005442311627687</v>
       </c>
       <c r="J29">
         <v>9</v>
       </c>
       <c r="K29">
-        <v>833</v>
+        <v>4885</v>
       </c>
       <c r="L29">
-        <v>2847</v>
+        <v>31581</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="4"/>
@@ -5853,11 +5854,11 @@
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="5"/>
-        <v>698.66666666666663</v>
+        <v>4795.333333333333</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="6"/>
-        <v>1329</v>
+        <v>7019</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
@@ -5865,10 +5866,10 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <v>6.3154080999993303</v>
+        <v>2.1343815999999798</v>
       </c>
       <c r="D30">
-        <v>5.74740529999871</v>
+        <v>1.9979253000000099</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5876,24 +5877,24 @@
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2217083666661566</v>
+        <v>2.0931566666666632</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="2"/>
-        <v>7.5019730333339432</v>
+        <v>2.2413139666666635</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91245915067356487</v>
+        <v>1.0707817538741329</v>
       </c>
       <c r="J30">
         <v>10</v>
       </c>
       <c r="K30">
-        <v>718</v>
+        <v>5437</v>
       </c>
       <c r="L30">
-        <v>1497</v>
+        <v>20901</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="4"/>
@@ -5901,11 +5902,11 @@
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="5"/>
-        <v>647</v>
+        <v>5096.666666666667</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="6"/>
-        <v>1119.6666666666667</v>
+        <v>7282</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
@@ -5913,10 +5914,10 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>9.0908976000009698</v>
+        <v>2.2437301999999799</v>
       </c>
       <c r="D31">
-        <v>8.1666172999994107</v>
+        <v>2.2927735000000098</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5924,24 +5925,24 @@
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0921130333329794</v>
+        <v>2.1813770999999966</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6772789333329703</v>
+        <v>2.0546070333333502</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93190636849148312</v>
+        <v>0.94188530416559035</v>
       </c>
       <c r="J31">
         <v>10</v>
       </c>
       <c r="K31">
-        <v>647</v>
+        <v>7078</v>
       </c>
       <c r="L31">
-        <v>2060</v>
+        <v>18695</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="4"/>
@@ -5949,11 +5950,11 @@
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="5"/>
-        <v>754</v>
+        <v>4664</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="6"/>
-        <v>1101</v>
+        <v>8732</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
@@ -5961,10 +5962,10 @@
         <v>10</v>
       </c>
       <c r="C32">
-        <v>7.4241068999999698</v>
+        <v>2.3335906999999998</v>
       </c>
       <c r="D32">
-        <v>6.8342726999999197</v>
+        <v>2.26910769999997</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5972,24 +5973,24 @@
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0439244333338094</v>
+        <v>2.1518498666666566</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3441056333328198</v>
+        <v>2.1983982000000002</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88421119295580408</v>
+        <v>1.0216317755501454</v>
       </c>
       <c r="J32">
         <v>10</v>
       </c>
       <c r="K32">
-        <v>560</v>
+        <v>5635</v>
       </c>
       <c r="L32">
-        <v>1093</v>
+        <v>27268</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="4"/>
@@ -5997,11 +5998,11 @@
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="5"/>
-        <v>614.66666666666663</v>
+        <v>4348.333333333333</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="6"/>
-        <v>928</v>
+        <v>6857.333333333333</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
@@ -6009,10 +6010,10 @@
         <v>11</v>
       </c>
       <c r="C33">
-        <v>6.6006985000003597</v>
+        <v>2.03475679999999</v>
       </c>
       <c r="D33">
-        <v>6.0933316000009601</v>
+        <v>1.9701382999999999</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -6020,24 +6021,24 @@
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1433744333335172</v>
+        <v>2.1925629333333565</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2892938666670135</v>
+        <v>2.0689375333333602</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86097533595993714</v>
+        <v>0.94361603121145154</v>
       </c>
       <c r="J33">
         <v>11</v>
       </c>
       <c r="K33">
-        <v>1238</v>
+        <v>5004</v>
       </c>
       <c r="L33">
-        <v>3010</v>
+        <v>20846</v>
       </c>
       <c r="M33">
         <f t="shared" ca="1" si="4"/>
@@ -6045,11 +6046,11 @@
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="5"/>
-        <v>611.66666666666663</v>
+        <v>5489</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="6"/>
-        <v>802.66666666666663</v>
+        <v>8245</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
@@ -6057,10 +6058,10 @@
         <v>11</v>
       </c>
       <c r="C34">
-        <v>7.2885298000001004</v>
+        <v>2.33749249999999</v>
       </c>
       <c r="D34">
-        <v>7.7996617000007902</v>
+        <v>2.15121709999999</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -6068,24 +6069,24 @@
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1560974333333398</v>
+        <v>2.1549118666666534</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1012997333333798</v>
+        <v>2.1609115666666732</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99109863016409594</v>
+        <v>1.0027841973923974</v>
       </c>
       <c r="J34">
         <v>11</v>
       </c>
       <c r="K34">
-        <v>582</v>
+        <v>4213</v>
       </c>
       <c r="L34">
-        <v>2680</v>
+        <v>29927</v>
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="4"/>
@@ -6093,11 +6094,11 @@
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="5"/>
-        <v>611.66666666666663</v>
+        <v>6460.333333333333</v>
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="6"/>
-        <v>909</v>
+        <v>7364.666666666667</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
@@ -6105,10 +6106,10 @@
         <v>11</v>
       </c>
       <c r="C35">
-        <v>8.8032885000011394</v>
+        <v>2.6794516000000201</v>
       </c>
       <c r="D35">
-        <v>7.0289539999994304</v>
+        <v>2.0437667999999798</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -6116,24 +6117,24 @@
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8894006666657006</v>
+        <v>2.1940165333333299</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="2"/>
-        <v>5.7888076333329037</v>
+        <v>2.0783322999999965</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84024836316197926</v>
+        <v>0.94727285251694227</v>
       </c>
       <c r="J35">
         <v>11</v>
       </c>
       <c r="K35">
-        <v>606</v>
+        <v>5352</v>
       </c>
       <c r="L35">
-        <v>2041</v>
+        <v>17962</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="4"/>
@@ -6141,11 +6142,11 @@
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="5"/>
-        <v>764</v>
+        <v>5236</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="6"/>
-        <v>1039.6666666666667</v>
+        <v>7441</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
@@ -6153,10 +6154,10 @@
         <v>12</v>
       </c>
       <c r="C36">
-        <v>7.1531801000000996</v>
+        <v>2.1869905999999699</v>
       </c>
       <c r="D36">
-        <v>7.1846220000006698</v>
+        <v>2.0351984000000098</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -6164,24 +6165,24 @@
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2124018333330797</v>
+        <v>2.14306113333333</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="2"/>
-        <v>5.5856056333329107</v>
+        <v>2.1741967</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89910565722953562</v>
+        <v>1.0145285480579089</v>
       </c>
       <c r="J36">
         <v>12</v>
       </c>
       <c r="K36">
-        <v>756</v>
+        <v>4263</v>
       </c>
       <c r="L36">
-        <v>2384</v>
+        <v>20840</v>
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="4"/>
@@ -6189,11 +6190,11 @@
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="5"/>
-        <v>622.66666666666663</v>
+        <v>5546.333333333333</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="6"/>
-        <v>935</v>
+        <v>8929.6666666666661</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
@@ -6201,10 +6202,10 @@
         <v>12</v>
       </c>
       <c r="C37">
-        <v>6.9427402000001104</v>
+        <v>2.1960928999999898</v>
       </c>
       <c r="D37">
-        <v>7.1521799000001902</v>
+        <v>2.2350504</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -6212,24 +6213,24 @@
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1485593333333428</v>
+        <v>2.1431337000000132</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3234141666665229</v>
+        <v>2.1504050666666568</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86579861689006732</v>
+        <v>1.0033928665610752</v>
       </c>
       <c r="J37">
         <v>12</v>
       </c>
       <c r="K37">
-        <v>602</v>
+        <v>4536</v>
       </c>
       <c r="L37">
-        <v>1514</v>
+        <v>24018</v>
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="4"/>
@@ -6237,11 +6238,11 @@
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="5"/>
-        <v>602</v>
+        <v>4281.333333333333</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="6"/>
-        <v>922</v>
+        <v>7634.666666666667</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
@@ -6249,10 +6250,10 @@
         <v>12</v>
       </c>
       <c r="C38">
-        <v>7.2882167000007003</v>
+        <v>2.26427789999999</v>
       </c>
       <c r="D38">
-        <v>7.6026612999994496</v>
+        <v>2.25796920000001</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -6260,24 +6261,24 @@
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1691390333338241</v>
+        <v>2.2032552666666567</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="2"/>
-        <v>6.7228176333331504</v>
+        <v>2.1500258333333533</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0897497360665118</v>
+        <v>0.97584055096174349</v>
       </c>
       <c r="J38">
         <v>12</v>
       </c>
       <c r="K38">
-        <v>699</v>
+        <v>5450</v>
       </c>
       <c r="L38">
-        <v>1624</v>
+        <v>12578</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="4"/>
@@ -6285,11 +6286,11 @@
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="5"/>
-        <v>785.33333333333337</v>
+        <v>5937.666666666667</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="6"/>
-        <v>1018.6666666666666</v>
+        <v>7931</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
@@ -6297,10 +6298,10 @@
         <v>13</v>
       </c>
       <c r="C39">
-        <v>8.6731239000000606</v>
+        <v>1.9959770999999999</v>
       </c>
       <c r="D39">
-        <v>8.0381601999997603</v>
+        <v>1.99679329999997</v>
       </c>
       <c r="E39" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -6308,24 +6309,24 @@
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1044719000001306</v>
+        <v>2.2082513666666697</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="2"/>
-        <v>6.2890550666664495</v>
+        <v>2.0456291666666231</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88522484924830713</v>
+        <v>0.92635702508563467</v>
       </c>
       <c r="J39">
         <v>13</v>
       </c>
       <c r="K39">
-        <v>692</v>
+        <v>5766</v>
       </c>
       <c r="L39">
-        <v>1250</v>
+        <v>14201</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="4"/>
@@ -6333,11 +6334,11 @@
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="5"/>
-        <v>669</v>
+        <v>4886.333333333333</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="6"/>
-        <v>777</v>
+        <v>7990.333333333333</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
@@ -6345,10 +6346,10 @@
         <v>13</v>
       </c>
       <c r="C40">
-        <v>7.14374490000045</v>
+        <v>2.0392337999999999</v>
       </c>
       <c r="D40">
-        <v>5.91212459999951</v>
+        <v>2.2234511000000001</v>
       </c>
       <c r="E40" s="2">
         <f ca="1">AVERAGE(OFFSET($B$3,(ROW()-ROW($E$3))*3,,3,))</f>
@@ -6356,24 +6357,24 @@
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1372023666669193</v>
+        <v>2.2378609999999868</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="2"/>
-        <v>5.5024089666664269</v>
+        <v>2.0275339000000536</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89656632418571436</v>
+        <v>0.90601422519095942</v>
       </c>
       <c r="J40">
         <v>13</v>
       </c>
       <c r="K40">
-        <v>615</v>
+        <v>5116</v>
       </c>
       <c r="L40">
-        <v>1160</v>
+        <v>11697</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="4"/>
@@ -6381,11 +6382,11 @@
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="5"/>
-        <v>689.33333333333337</v>
+        <v>5098.333333333333</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="6"/>
-        <v>879.66666666666663</v>
+        <v>5971.333333333333</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
@@ -6393,10 +6394,10 @@
         <v>13</v>
       </c>
       <c r="C41">
-        <v>6.5725576999993702</v>
+        <v>2.37625259999998</v>
       </c>
       <c r="D41">
-        <v>6.9441463000002797</v>
+        <v>2.2452748999999899</v>
       </c>
       <c r="E41" s="2">
         <f ca="1">AVERAGE(OFFSET($B$3,(ROW()-ROW($E$3))*3,,3,))</f>
@@ -6404,24 +6405,24 @@
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5849347999998464</v>
+        <v>2.1830970999999768</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="2"/>
-        <v>8.4555426333336072</v>
+        <v>2.2103875666666268</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98492799657998087</v>
+        <v>1.0125008029494658</v>
       </c>
       <c r="J41">
         <v>13</v>
       </c>
       <c r="K41">
-        <v>804</v>
+        <v>8739</v>
       </c>
       <c r="L41">
-        <v>1886</v>
+        <v>27331</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="4"/>
@@ -6429,11 +6430,11 @@
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="5"/>
-        <v>662.66666666666663</v>
+        <v>6127.666666666667</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="6"/>
-        <v>856.66666666666663</v>
+        <v>7551</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
@@ -6441,19 +6442,19 @@
         <v>14</v>
       </c>
       <c r="C42">
-        <v>7.9154292000002897</v>
+        <v>2.1202277000000098</v>
       </c>
       <c r="D42">
-        <v>8.8494399999999498</v>
+        <v>2.0133060999999901</v>
       </c>
       <c r="J42">
         <v>14</v>
       </c>
       <c r="K42">
-        <v>617</v>
+        <v>5934</v>
       </c>
       <c r="L42">
-        <v>1161</v>
+        <v>12223</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
@@ -6461,19 +6462,19 @@
         <v>14</v>
       </c>
       <c r="C43">
-        <v>8.1345715000006695</v>
+        <v>2.0587634000000001</v>
       </c>
       <c r="D43">
-        <v>6.4516374999984603</v>
+        <v>2.1553697999999799</v>
       </c>
       <c r="J43">
         <v>14</v>
       </c>
       <c r="K43">
-        <v>639</v>
+        <v>3767</v>
       </c>
       <c r="L43">
-        <v>2083</v>
+        <v>10188</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
@@ -6481,19 +6482,19 @@
         <v>14</v>
       </c>
       <c r="C44">
-        <v>7.4711329000001498</v>
+        <v>2.2094428000000002</v>
       </c>
       <c r="D44">
-        <v>7.6799264999990502</v>
+        <v>2.4468529999999999</v>
       </c>
       <c r="J44">
         <v>14</v>
       </c>
       <c r="K44">
-        <v>602</v>
+        <v>7296</v>
       </c>
       <c r="L44">
-        <v>1749</v>
+        <v>25123</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
@@ -6501,19 +6502,19 @@
         <v>15</v>
       </c>
       <c r="C45">
-        <v>7.6503888999995899</v>
+        <v>1.9983493000000001</v>
       </c>
       <c r="D45">
-        <v>7.0204026999999698</v>
+        <v>2.0087929</v>
       </c>
       <c r="J45">
         <v>15</v>
       </c>
       <c r="K45">
-        <v>748</v>
+        <v>6087</v>
       </c>
       <c r="L45">
-        <v>1017</v>
+        <v>10288</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
@@ -6521,19 +6522,19 @@
         <v>15</v>
       </c>
       <c r="C46">
-        <v>8.2456072000004497</v>
+        <v>2.0528754</v>
       </c>
       <c r="D46">
-        <v>6.5046815999994498</v>
+        <v>2.0205258999999902</v>
       </c>
       <c r="J46">
         <v>15</v>
       </c>
       <c r="K46">
-        <v>720</v>
+        <v>4249</v>
       </c>
       <c r="L46">
-        <v>1356</v>
+        <v>16166</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
@@ -6541,19 +6542,19 @@
         <v>15</v>
       </c>
       <c r="C47">
-        <v>7.4121692000007897</v>
+        <v>2.4651464999999999</v>
       </c>
       <c r="D47">
-        <v>8.4707895999999892</v>
+        <v>2.0121904999999698</v>
       </c>
       <c r="J47">
         <v>15</v>
       </c>
       <c r="K47">
-        <v>751</v>
+        <v>4306</v>
       </c>
       <c r="L47">
-        <v>1155</v>
+        <v>17524</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
@@ -6561,19 +6562,19 @@
         <v>16</v>
       </c>
       <c r="C48">
-        <v>8.47832660000131</v>
+        <v>2.3197945</v>
       </c>
       <c r="D48">
-        <v>7.9555660999994799</v>
+        <v>2.0064281999999798</v>
       </c>
       <c r="J48">
         <v>16</v>
       </c>
       <c r="K48">
-        <v>648</v>
+        <v>4824</v>
       </c>
       <c r="L48">
-        <v>1301</v>
+        <v>30647</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.3">
@@ -6581,19 +6582,19 @@
         <v>16</v>
       </c>
       <c r="C49">
-        <v>9.0342593999994207</v>
+        <v>1.95614</v>
       </c>
       <c r="D49">
-        <v>7.85546459999932</v>
+        <v>2.0747827999999999</v>
       </c>
       <c r="J49">
         <v>16</v>
       </c>
       <c r="K49">
-        <v>700</v>
+        <v>4747</v>
       </c>
       <c r="L49">
-        <v>3023</v>
+        <v>14316</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.3">
@@ -6601,19 +6602,19 @@
         <v>16</v>
       </c>
       <c r="C50">
-        <v>6.9826004999995304</v>
+        <v>2.1835533999999899</v>
       </c>
       <c r="D50">
-        <v>7.5852890000005502</v>
+        <v>2.3967123000000101</v>
       </c>
       <c r="J50">
         <v>16</v>
       </c>
       <c r="K50">
-        <v>967</v>
+        <v>7054</v>
       </c>
       <c r="L50">
-        <v>1337</v>
+        <v>12240</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.3">
@@ -6621,19 +6622,19 @@
         <v>17</v>
       </c>
       <c r="C51">
-        <v>7.6504812999992202</v>
+        <v>2.2872021999999901</v>
       </c>
       <c r="D51">
-        <v>8.3614565999996504</v>
+        <v>1.98208869999999</v>
       </c>
       <c r="J51">
         <v>17</v>
       </c>
       <c r="K51">
-        <v>745</v>
+        <v>5817</v>
       </c>
       <c r="L51">
-        <v>1513</v>
+        <v>16393</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.3">
@@ -6641,19 +6642,19 @@
         <v>17</v>
       </c>
       <c r="C52">
-        <v>7.1336169999995001</v>
+        <v>2.2260945000000101</v>
       </c>
       <c r="D52">
-        <v>8.4122034000010899</v>
+        <v>1.97199699999998</v>
       </c>
       <c r="J52">
         <v>17</v>
       </c>
       <c r="K52">
-        <v>1092</v>
+        <v>6586</v>
       </c>
       <c r="L52">
-        <v>1373</v>
+        <v>14155</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.3">
@@ -6661,19 +6662,19 @@
         <v>17</v>
       </c>
       <c r="C53">
-        <v>8.7946458000005805</v>
+        <v>2.2475405000000102</v>
       </c>
       <c r="D53">
-        <v>7.8654970999996197</v>
+        <v>2.1803996000000101</v>
       </c>
       <c r="J53">
         <v>17</v>
       </c>
       <c r="K53">
-        <v>663</v>
+        <v>7100</v>
       </c>
       <c r="L53">
-        <v>1252</v>
+        <v>11083</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.3">
@@ -6681,19 +6682,19 @@
         <v>18</v>
       </c>
       <c r="C54">
-        <v>7.8995471999987696</v>
+        <v>2.4680711</v>
       </c>
       <c r="D54">
-        <v>8.1286368000000895</v>
+        <v>2.1699936999999601</v>
       </c>
       <c r="J54">
         <v>18</v>
       </c>
       <c r="K54">
-        <v>773</v>
+        <v>5868</v>
       </c>
       <c r="L54">
-        <v>1397</v>
+        <v>17594</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.3">
@@ -6701,19 +6702,19 @@
         <v>18</v>
       </c>
       <c r="C55">
-        <v>8.1822959000000992</v>
+        <v>1.9747469999999701</v>
       </c>
       <c r="D55">
-        <v>8.9493731000002299</v>
+        <v>2.0517993000000199</v>
       </c>
       <c r="J55">
         <v>18</v>
       </c>
       <c r="K55">
-        <v>679</v>
+        <v>5510</v>
       </c>
       <c r="L55">
-        <v>1461</v>
+        <v>10929</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.3">
@@ -6721,19 +6722,19 @@
         <v>18</v>
       </c>
       <c r="C56">
-        <v>8.40004290000069</v>
+        <v>2.1262673999999602</v>
       </c>
       <c r="D56">
-        <v>7.7887174999996196</v>
+        <v>2.3142876000000001</v>
       </c>
       <c r="J56">
         <v>18</v>
       </c>
       <c r="K56">
-        <v>568</v>
+        <v>6454</v>
       </c>
       <c r="L56">
-        <v>1445</v>
+        <v>11406</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.3">
@@ -6741,19 +6742,19 @@
         <v>19</v>
       </c>
       <c r="C57">
-        <v>7.9022077000008704</v>
+        <v>2.1983969999999999</v>
       </c>
       <c r="D57">
-        <v>7.4423306000007798</v>
+        <v>2.1932242000000302</v>
       </c>
       <c r="J57">
         <v>19</v>
       </c>
       <c r="K57">
-        <v>640</v>
+        <v>4955</v>
       </c>
       <c r="L57">
-        <v>2206</v>
+        <v>15181</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.3">
@@ -6761,19 +6762,19 @@
         <v>19</v>
       </c>
       <c r="C58">
-        <v>8.5261571999999397</v>
+        <v>2.0801195999999802</v>
       </c>
       <c r="D58">
-        <v>8.1034865999990799</v>
+        <v>1.96086980000001</v>
       </c>
       <c r="J58">
         <v>19</v>
       </c>
       <c r="K58">
-        <v>670</v>
+        <v>5265</v>
       </c>
       <c r="L58">
-        <v>1850</v>
+        <v>27058</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.3">
@@ -6781,19 +6782,19 @@
         <v>19</v>
       </c>
       <c r="C59">
-        <v>8.3568751999991893</v>
+        <v>2.0785341999999698</v>
       </c>
       <c r="D59">
-        <v>7.6345944000004202</v>
+        <v>2.2421911000000101</v>
       </c>
       <c r="J59">
         <v>19</v>
       </c>
       <c r="K59">
-        <v>609</v>
+        <v>4043</v>
       </c>
       <c r="L59">
-        <v>1566</v>
+        <v>11352</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.3">
@@ -6801,19 +6802,19 @@
         <v>20</v>
       </c>
       <c r="C60">
-        <v>7.7541111999998904</v>
+        <v>2.3074569999999901</v>
       </c>
       <c r="D60">
-        <v>7.5422381999996997</v>
+        <v>2.2556308</v>
       </c>
       <c r="J60">
         <v>20</v>
       </c>
       <c r="K60">
-        <v>823</v>
+        <v>5657</v>
       </c>
       <c r="L60">
-        <v>1709</v>
+        <v>13331</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.3">
@@ -6821,19 +6822,19 @@
         <v>20</v>
       </c>
       <c r="C61">
-        <v>8.3119950999989598</v>
+        <v>1.9182599</v>
       </c>
       <c r="D61">
-        <v>8.4376862000008206</v>
+        <v>2.0873682999999801</v>
       </c>
       <c r="J61">
         <v>20</v>
       </c>
       <c r="K61">
-        <v>702</v>
+        <v>4320</v>
       </c>
       <c r="L61">
-        <v>998</v>
+        <v>6036</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.3">
@@ -6841,19 +6842,19 @@
         <v>20</v>
       </c>
       <c r="C62">
-        <v>8.4328370000002906</v>
+        <v>2.0183153999999401</v>
       </c>
       <c r="D62">
-        <v>8.0542236000001104</v>
+        <v>2.3752867999999601</v>
       </c>
       <c r="J62">
         <v>20</v>
       </c>
       <c r="K62">
-        <v>756</v>
+        <v>5271</v>
       </c>
       <c r="L62">
-        <v>1602</v>
+        <v>20246</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.3">
@@ -6861,19 +6862,19 @@
         <v>21</v>
       </c>
       <c r="C63">
-        <v>7.9436977999994198</v>
+        <v>2.0328652999999601</v>
       </c>
       <c r="D63">
-        <v>7.4719156999999496</v>
+        <v>2.2538453999999799</v>
       </c>
       <c r="J63">
         <v>21</v>
       </c>
       <c r="K63">
-        <v>657</v>
+        <v>4860</v>
       </c>
       <c r="L63">
-        <v>1021</v>
+        <v>5655</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.3">
@@ -6881,19 +6882,19 @@
         <v>21</v>
       </c>
       <c r="C64">
-        <v>7.7395161999993398</v>
+        <v>2.3472260999999999</v>
       </c>
       <c r="D64">
-        <v>8.4336925000006797</v>
+        <v>1.9752324999999999</v>
       </c>
       <c r="J64">
         <v>21</v>
       </c>
       <c r="K64">
-        <v>575</v>
+        <v>6039</v>
       </c>
       <c r="L64">
-        <v>752</v>
+        <v>11962</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.3">
@@ -6901,19 +6902,19 @@
         <v>21</v>
       </c>
       <c r="C65">
-        <v>8.0477557000012894</v>
+        <v>2.1179923999999901</v>
       </c>
       <c r="D65">
-        <v>8.5127195999994001</v>
+        <v>2.1215632000000202</v>
       </c>
       <c r="J65">
         <v>21</v>
       </c>
       <c r="K65">
-        <v>508</v>
+        <v>6901</v>
       </c>
       <c r="L65">
-        <v>1156</v>
+        <v>8914</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.3">
@@ -6921,19 +6922,19 @@
         <v>22</v>
       </c>
       <c r="C66">
-        <v>8.0282581999999802</v>
+        <v>2.7990748000000201</v>
       </c>
       <c r="D66">
-        <v>7.55952169999909</v>
+        <v>2.1961277000000301</v>
       </c>
       <c r="J66">
         <v>22</v>
       </c>
       <c r="K66">
-        <v>926</v>
+        <v>8288</v>
       </c>
       <c r="L66">
-        <v>1260</v>
+        <v>10647</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.3">
@@ -6941,19 +6942,19 @@
         <v>22</v>
       </c>
       <c r="C67">
-        <v>8.0347481999997399</v>
+        <v>1.9502883999999701</v>
       </c>
       <c r="D67">
-        <v>8.0072151000003906</v>
+        <v>2.1574610999999702</v>
       </c>
       <c r="J67">
         <v>22</v>
       </c>
       <c r="K67">
-        <v>721</v>
+        <v>4072</v>
       </c>
       <c r="L67">
-        <v>845</v>
+        <v>8564</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.3">
@@ -6961,19 +6962,19 @@
         <v>22</v>
       </c>
       <c r="C68">
-        <v>8.9843565000010095</v>
+        <v>1.9794160000000101</v>
       </c>
       <c r="D68">
-        <v>9.37801599999875</v>
+        <v>2.3618149000000099</v>
       </c>
       <c r="J68">
         <v>22</v>
       </c>
       <c r="K68">
-        <v>930</v>
+        <v>4257</v>
       </c>
       <c r="L68">
-        <v>1002</v>
+        <v>5016</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.3">
@@ -6981,19 +6982,19 @@
         <v>23</v>
       </c>
       <c r="C69">
-        <v>8.7268676999992696</v>
+        <v>2.27254530000004</v>
       </c>
       <c r="D69">
-        <v>8.4992670999999902</v>
+        <v>2.33080689999997</v>
       </c>
       <c r="J69">
         <v>23</v>
       </c>
       <c r="K69">
-        <v>708</v>
+        <v>4764</v>
       </c>
       <c r="L69">
-        <v>1040</v>
+        <v>9172</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.3">
@@ -7001,19 +7002,19 @@
         <v>23</v>
       </c>
       <c r="C70">
-        <v>9.0829193999998097</v>
+        <v>2.0694596000000098</v>
       </c>
       <c r="D70">
-        <v>9.1552265000009303</v>
+        <v>1.93764370000002</v>
       </c>
       <c r="J70">
         <v>23</v>
       </c>
       <c r="K70">
-        <v>704</v>
+        <v>5750</v>
       </c>
       <c r="L70">
-        <v>961</v>
+        <v>7460</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.3">
@@ -7021,19 +7022,19 @@
         <v>23</v>
       </c>
       <c r="C71">
-        <v>10.3166759999985</v>
+        <v>2.0984970000000001</v>
       </c>
       <c r="D71">
-        <v>11.6527793999994</v>
+        <v>2.07141000000001</v>
       </c>
       <c r="J71">
         <v>23</v>
       </c>
       <c r="K71">
-        <v>782</v>
+        <v>4628</v>
       </c>
       <c r="L71">
-        <v>1121</v>
+        <v>17388</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.3">
@@ -7041,19 +7042,19 @@
         <v>24</v>
       </c>
       <c r="C72">
-        <v>9.6555807000004208</v>
+        <v>2.3167523000000099</v>
       </c>
       <c r="D72">
-        <v>7.2136246000009097</v>
+        <v>2.1676871999999801</v>
       </c>
       <c r="J72">
         <v>24</v>
       </c>
       <c r="K72">
-        <v>571</v>
+        <v>5383</v>
       </c>
       <c r="L72">
-        <v>851</v>
+        <v>10742</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.3">
@@ -7061,19 +7062,19 @@
         <v>24</v>
       </c>
       <c r="C73">
-        <v>8.1905217999992601</v>
+        <v>2.0721226000000001</v>
       </c>
       <c r="D73">
-        <v>7.93826079999962</v>
+        <v>2.1791002999999498</v>
       </c>
       <c r="J73">
         <v>24</v>
       </c>
       <c r="K73">
-        <v>630</v>
+        <v>4551</v>
       </c>
       <c r="L73">
-        <v>693</v>
+        <v>7902</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.3">
@@ -7081,19 +7082,19 @@
         <v>24</v>
       </c>
       <c r="C74">
-        <v>8.1165957000011897</v>
+        <v>1.9863915000000201</v>
       </c>
       <c r="D74">
-        <v>7.9918522000007197</v>
+        <v>2.2015617000000098</v>
       </c>
       <c r="J74">
         <v>24</v>
       </c>
       <c r="K74">
-        <v>683</v>
+        <v>6512</v>
       </c>
       <c r="L74">
-        <v>735</v>
+        <v>9248</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.3">
@@ -7101,19 +7102,19 @@
         <v>25</v>
       </c>
       <c r="C75">
-        <v>7.5256243000003398</v>
+        <v>2.1574180999999699</v>
       </c>
       <c r="D75">
-        <v>7.8063858000004904</v>
+        <v>2.2550142000000002</v>
       </c>
       <c r="J75">
         <v>25</v>
       </c>
       <c r="K75">
-        <v>694</v>
+        <v>4358</v>
       </c>
       <c r="L75">
-        <v>829</v>
+        <v>5526</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.3">
@@ -7121,19 +7122,19 @@
         <v>25</v>
       </c>
       <c r="C76">
-        <v>7.8426363999988098</v>
+        <v>2.3011853999999499</v>
       </c>
       <c r="D76">
-        <v>7.9501964999999402</v>
+        <v>1.89935439999999</v>
       </c>
       <c r="J76">
         <v>25</v>
       </c>
       <c r="K76">
-        <v>652</v>
+        <v>4049</v>
       </c>
       <c r="L76">
-        <v>927</v>
+        <v>6085</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.3">
@@ -7141,19 +7142,19 @@
         <v>25</v>
       </c>
       <c r="C77">
-        <v>7.7971907999999504</v>
+        <v>2.1829541000000101</v>
       </c>
       <c r="D77">
-        <v>7.5416718999986099</v>
+        <v>2.0704567000000198</v>
       </c>
       <c r="J77">
         <v>25</v>
       </c>
       <c r="K77">
-        <v>587</v>
+        <v>4747</v>
       </c>
       <c r="L77">
-        <v>817</v>
+        <v>6778</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.3">
@@ -7161,19 +7162,19 @@
         <v>26</v>
       </c>
       <c r="C78">
-        <v>7.4606430999992801</v>
+        <v>2.2447369999999802</v>
       </c>
       <c r="D78">
-        <v>7.4592451999997103</v>
+        <v>2.3685894999999801</v>
       </c>
       <c r="J78">
         <v>26</v>
       </c>
       <c r="K78">
-        <v>625</v>
+        <v>4250</v>
       </c>
       <c r="L78">
-        <v>724</v>
+        <v>10438</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.3">
@@ -7181,19 +7182,19 @@
         <v>26</v>
       </c>
       <c r="C79">
-        <v>7.8874251999986802</v>
+        <v>2.0987299000000199</v>
       </c>
       <c r="D79">
-        <v>7.87456209999982</v>
+        <v>2.1144745999999901</v>
       </c>
       <c r="J79">
         <v>26</v>
       </c>
       <c r="K79">
-        <v>947</v>
+        <v>4684</v>
       </c>
       <c r="L79">
-        <v>1166</v>
+        <v>5525</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.3">
@@ -7201,19 +7202,19 @@
         <v>26</v>
       </c>
       <c r="C80">
-        <v>7.9090070000001997</v>
+        <v>1.92694790000001</v>
       </c>
       <c r="D80">
-        <v>7.3367850000013197</v>
+        <v>2.08175909999999</v>
       </c>
       <c r="J80">
         <v>26</v>
       </c>
       <c r="K80">
-        <v>697</v>
+        <v>4977</v>
       </c>
       <c r="L80">
-        <v>1363</v>
+        <v>24490</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.3">
@@ -7221,19 +7222,19 @@
         <v>27</v>
       </c>
       <c r="C81">
-        <v>7.7942972000000701</v>
+        <v>2.2917997000000101</v>
       </c>
       <c r="D81">
-        <v>7.5223650999996599</v>
+        <v>2.3722052999999601</v>
       </c>
       <c r="J81">
         <v>27</v>
       </c>
       <c r="K81">
-        <v>687</v>
+        <v>4570</v>
       </c>
       <c r="L81">
-        <v>895</v>
+        <v>9593</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.3">
@@ -7241,19 +7242,19 @@
         <v>27</v>
       </c>
       <c r="C82">
-        <v>7.8707503000005001</v>
+        <v>2.1936853999999899</v>
       </c>
       <c r="D82">
-        <v>7.7309900999989596</v>
+        <v>1.98948159999997</v>
       </c>
       <c r="J82">
         <v>27</v>
       </c>
       <c r="K82">
-        <v>771</v>
+        <v>5583</v>
       </c>
       <c r="L82">
-        <v>1973</v>
+        <v>5754</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.3">
@@ -7261,19 +7262,19 @@
         <v>27</v>
       </c>
       <c r="C83">
-        <v>7.7675530999986204</v>
+        <v>2.1053172</v>
       </c>
       <c r="D83">
-        <v>7.7192519000000104</v>
+        <v>1.9658420000000001</v>
       </c>
       <c r="J83">
         <v>27</v>
       </c>
       <c r="K83">
-        <v>638</v>
+        <v>4233</v>
       </c>
       <c r="L83">
-        <v>1119</v>
+        <v>5710</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.3">
@@ -7281,19 +7282,19 @@
         <v>28</v>
       </c>
       <c r="C84">
-        <v>7.9437476999992196</v>
+        <v>2.1740227000000201</v>
       </c>
       <c r="D84">
-        <v>7.4470176000013399</v>
+        <v>2.47723719999999</v>
       </c>
       <c r="J84">
         <v>28</v>
       </c>
       <c r="K84">
-        <v>541</v>
+        <v>5213</v>
       </c>
       <c r="L84">
-        <v>925</v>
+        <v>7321</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.3">
@@ -7301,19 +7302,19 @@
         <v>28</v>
       </c>
       <c r="C85">
-        <v>7.5298638000003804</v>
+        <v>2.2031284999999898</v>
       </c>
       <c r="D85">
-        <v>7.9949876000009601</v>
+        <v>2.0785040000000001</v>
       </c>
       <c r="J85">
         <v>28</v>
       </c>
       <c r="K85">
-        <v>800</v>
+        <v>4583</v>
       </c>
       <c r="L85">
-        <v>1341</v>
+        <v>7129</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.3">
@@ -7321,19 +7322,19 @@
         <v>28</v>
       </c>
       <c r="C86">
-        <v>9.1915135999988706</v>
+        <v>1.90231879999998</v>
       </c>
       <c r="D86">
-        <v>7.0639138999995303</v>
+        <v>2.1682006999999999</v>
       </c>
       <c r="J86">
         <v>28</v>
       </c>
       <c r="K86">
-        <v>600</v>
+        <v>5494</v>
       </c>
       <c r="L86">
-        <v>1093</v>
+        <v>7396</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.3">
@@ -7341,19 +7342,19 @@
         <v>29</v>
       </c>
       <c r="C87">
-        <v>6.3881540999991504</v>
+        <v>2.2446451000000098</v>
       </c>
       <c r="D87">
-        <v>5.5074795000000396</v>
+        <v>2.1625692000000001</v>
       </c>
       <c r="J87">
         <v>29</v>
       </c>
       <c r="K87">
-        <v>574</v>
+        <v>5414</v>
       </c>
       <c r="L87">
-        <v>1136</v>
+        <v>6501</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.3">
@@ -7361,19 +7362,19 @@
         <v>29</v>
       </c>
       <c r="C88">
-        <v>5.9331776999988497</v>
+        <v>2.1738795999999598</v>
       </c>
       <c r="D88">
-        <v>5.6434610999985999</v>
+        <v>2.0082605</v>
       </c>
       <c r="J88">
         <v>29</v>
       </c>
       <c r="K88">
-        <v>954</v>
+        <v>3383</v>
       </c>
       <c r="L88">
-        <v>1129</v>
+        <v>11607</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.3">
@@ -7381,19 +7382,19 @@
         <v>29</v>
       </c>
       <c r="C89">
-        <v>5.9550073000009398</v>
+        <v>2.1256066000000202</v>
       </c>
       <c r="D89">
-        <v>5.8808962000002696</v>
+        <v>1.9929914000000499</v>
       </c>
       <c r="J89">
         <v>29</v>
       </c>
       <c r="K89">
-        <v>734</v>
+        <v>5195</v>
       </c>
       <c r="L89">
-        <v>1038</v>
+        <v>8088</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.3">
@@ -7401,19 +7402,19 @@
         <v>30</v>
       </c>
       <c r="C90">
-        <v>6.1009059000007202</v>
+        <v>2.2549356999999701</v>
       </c>
       <c r="D90">
-        <v>5.2051061999991299</v>
+        <v>2.3820563000000399</v>
       </c>
       <c r="J90">
         <v>30</v>
       </c>
       <c r="K90">
-        <v>722</v>
+        <v>4720</v>
       </c>
       <c r="L90">
-        <v>871</v>
+        <v>8405</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.3">
@@ -7421,19 +7422,19 @@
         <v>30</v>
       </c>
       <c r="C91">
-        <v>5.5820753000007199</v>
+        <v>2.2015146999999602</v>
       </c>
       <c r="D91">
-        <v>5.1581798000006502</v>
+        <v>2.1381573999999501</v>
       </c>
       <c r="J91">
         <v>30</v>
       </c>
       <c r="K91">
-        <v>542</v>
+        <v>4885</v>
       </c>
       <c r="L91">
-        <v>763</v>
+        <v>6462</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.3">
@@ -7441,19 +7442,19 @@
         <v>30</v>
       </c>
       <c r="C92">
-        <v>6.4487920999999897</v>
+        <v>1.99909920000004</v>
       </c>
       <c r="D92">
-        <v>5.6690308999986803</v>
+        <v>2.0749809000000101</v>
       </c>
       <c r="J92">
         <v>30</v>
       </c>
       <c r="K92">
-        <v>580</v>
+        <v>3440</v>
       </c>
       <c r="L92">
-        <v>1150</v>
+        <v>5705</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.3">
@@ -7461,19 +7462,19 @@
         <v>31</v>
       </c>
       <c r="C93">
-        <v>6.6652668999995504</v>
+        <v>2.2920551000000202</v>
       </c>
       <c r="D93">
-        <v>5.2082871999991696</v>
+        <v>2.1607413000000402</v>
       </c>
       <c r="J93">
         <v>31</v>
       </c>
       <c r="K93">
-        <v>630</v>
+        <v>5246</v>
       </c>
       <c r="L93">
-        <v>946</v>
+        <v>7581</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.3">
@@ -7481,19 +7482,19 @@
         <v>31</v>
       </c>
       <c r="C94">
-        <v>5.6581927999995898</v>
+        <v>2.30825510000005</v>
       </c>
       <c r="D94">
-        <v>5.1667948000012904</v>
+        <v>2.0013439000000499</v>
       </c>
       <c r="J94">
         <v>31</v>
       </c>
       <c r="K94">
-        <v>554</v>
+        <v>6647</v>
       </c>
       <c r="L94">
-        <v>731</v>
+        <v>9207</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.3">
@@ -7501,19 +7502,19 @@
         <v>31</v>
       </c>
       <c r="C95">
-        <v>6.1066636000014096</v>
+        <v>1.9773786</v>
       </c>
       <c r="D95">
-        <v>5.4927996000005797</v>
+        <v>2.04472739999999</v>
       </c>
       <c r="J95">
         <v>31</v>
       </c>
       <c r="K95">
-        <v>651</v>
+        <v>4574</v>
       </c>
       <c r="L95">
-        <v>731</v>
+        <v>7947</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.3">
@@ -7521,19 +7522,19 @@
         <v>32</v>
       </c>
       <c r="C96">
-        <v>6.5178432000011499</v>
+        <v>2.2912574000000001</v>
       </c>
       <c r="D96">
-        <v>5.3872071000005199</v>
+        <v>2.4089572999999902</v>
       </c>
       <c r="J96">
         <v>32</v>
       </c>
       <c r="K96">
-        <v>688</v>
+        <v>9008</v>
       </c>
       <c r="L96">
-        <v>1150</v>
+        <v>10947</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.3">
@@ -7541,19 +7542,19 @@
         <v>32</v>
       </c>
       <c r="C97">
-        <v>5.5124448999995304</v>
+        <v>2.2106939999999802</v>
       </c>
       <c r="D97">
-        <v>5.1087558999988598</v>
+        <v>2.06069660000002</v>
       </c>
       <c r="J97">
         <v>32</v>
       </c>
       <c r="K97">
-        <v>589</v>
+        <v>4784</v>
       </c>
       <c r="L97">
-        <v>810</v>
+        <v>5523</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.3">
@@ -7561,19 +7562,19 @@
         <v>32</v>
       </c>
       <c r="C98">
-        <v>6.43800419999934</v>
+        <v>1.96278419999998</v>
       </c>
       <c r="D98">
-        <v>7.8079362000007597</v>
+        <v>2.0130808000000102</v>
       </c>
       <c r="J98">
         <v>32</v>
       </c>
       <c r="K98">
-        <v>558</v>
+        <v>5589</v>
       </c>
       <c r="L98">
-        <v>767</v>
+        <v>5624</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.3">
@@ -7581,19 +7582,19 @@
         <v>33</v>
       </c>
       <c r="C99">
-        <v>8.9615732999991398</v>
+        <v>2.32288529999999</v>
       </c>
       <c r="D99">
-        <v>6.8924623999992001</v>
+        <v>2.1459470999999999</v>
       </c>
       <c r="J99">
         <v>33</v>
       </c>
       <c r="K99">
-        <v>690</v>
+        <v>6661</v>
       </c>
       <c r="L99">
-        <v>1133</v>
+        <v>7514</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.3">
@@ -7601,19 +7602,19 @@
         <v>33</v>
       </c>
       <c r="C100">
-        <v>5.8372026999986701</v>
+        <v>2.2820450999999999</v>
       </c>
       <c r="D100">
-        <v>5.2694398000003204</v>
+        <v>1.9860802</v>
       </c>
       <c r="J100">
         <v>33</v>
       </c>
       <c r="K100">
-        <v>821</v>
+        <v>5174</v>
       </c>
       <c r="L100">
-        <v>1173</v>
+        <v>9979</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.3">
@@ -7621,19 +7622,19 @@
         <v>33</v>
       </c>
       <c r="C101">
-        <v>5.8694259999992902</v>
+        <v>1.9771192</v>
       </c>
       <c r="D101">
-        <v>5.2045206999991898</v>
+        <v>2.10296959999999</v>
       </c>
       <c r="J101">
         <v>33</v>
       </c>
       <c r="K101">
-        <v>781</v>
+        <v>3873</v>
       </c>
       <c r="L101">
-        <v>813</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.3">
@@ -7641,19 +7642,19 @@
         <v>34</v>
       </c>
       <c r="C102">
-        <v>6.4449254999999503</v>
+        <v>2.1678147999999702</v>
       </c>
       <c r="D102">
-        <v>6.11325899999974</v>
+        <v>2.39802179999998</v>
       </c>
       <c r="J102">
         <v>34</v>
       </c>
       <c r="K102">
-        <v>513</v>
+        <v>4668</v>
       </c>
       <c r="L102">
-        <v>724</v>
+        <v>8069</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.3">
@@ -7661,19 +7662,19 @@
         <v>34</v>
       </c>
       <c r="C103">
-        <v>6.5679947999997204</v>
+        <v>2.2284395000000301</v>
       </c>
       <c r="D103">
-        <v>5.3906626000007201</v>
+        <v>1.99466970000003</v>
       </c>
       <c r="J103">
         <v>34</v>
       </c>
       <c r="K103">
-        <v>686</v>
+        <v>4010</v>
       </c>
       <c r="L103">
-        <v>1149</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.3">
@@ -7681,19 +7682,19 @@
         <v>34</v>
       </c>
       <c r="C104">
-        <v>5.6242851999995702</v>
+        <v>2.0329290999999898</v>
       </c>
       <c r="D104">
-        <v>5.2528952999982703</v>
+        <v>2.12989859999999</v>
       </c>
       <c r="J104">
         <v>34</v>
       </c>
       <c r="K104">
-        <v>669</v>
+        <v>7961</v>
       </c>
       <c r="L104">
-        <v>932</v>
+        <v>14249</v>
       </c>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.3">
@@ -7701,19 +7702,19 @@
         <v>35</v>
       </c>
       <c r="C105">
-        <v>6.2704565000003596</v>
+        <v>2.2514408999999702</v>
       </c>
       <c r="D105">
-        <v>5.45537220000005</v>
+        <v>2.3145377999999801</v>
       </c>
       <c r="J105">
         <v>35</v>
       </c>
       <c r="K105">
-        <v>575</v>
+        <v>3721</v>
       </c>
       <c r="L105">
-        <v>685</v>
+        <v>9418</v>
       </c>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.3">
@@ -7721,19 +7722,19 @@
         <v>35</v>
       </c>
       <c r="C106">
-        <v>6.5616284999996397</v>
+        <v>2.1628050000000401</v>
       </c>
       <c r="D106">
-        <v>5.4439142999999603</v>
+        <v>2.0725795999999801</v>
       </c>
       <c r="J106">
         <v>35</v>
       </c>
       <c r="K106">
-        <v>648</v>
+        <v>4621</v>
       </c>
       <c r="L106">
-        <v>655</v>
+        <v>7344</v>
       </c>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.3">
@@ -7741,19 +7742,19 @@
         <v>35</v>
       </c>
       <c r="C107">
-        <v>5.61359300000003</v>
+        <v>2.0151552000000299</v>
       </c>
       <c r="D107">
-        <v>5.0709559999995601</v>
+        <v>2.0640978000000101</v>
       </c>
       <c r="J107">
         <v>35</v>
       </c>
       <c r="K107">
-        <v>583</v>
+        <v>4502</v>
       </c>
       <c r="L107">
-        <v>1426</v>
+        <v>6142</v>
       </c>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.3">
@@ -7761,19 +7762,19 @@
         <v>36</v>
       </c>
       <c r="C108">
-        <v>6.43890199999987</v>
+        <v>2.2066341999999901</v>
       </c>
       <c r="D108">
-        <v>6.0736832999991703</v>
+        <v>2.45298020000001</v>
       </c>
       <c r="J108">
         <v>36</v>
       </c>
       <c r="K108">
-        <v>815</v>
+        <v>5135</v>
       </c>
       <c r="L108">
-        <v>1131</v>
+        <v>8969</v>
       </c>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.3">
@@ -7781,19 +7782,19 @@
         <v>36</v>
       </c>
       <c r="C109">
-        <v>6.2026508000017202</v>
+        <v>2.2184084999999998</v>
       </c>
       <c r="D109">
-        <v>6.86287210000045</v>
+        <v>1.9355937000000201</v>
       </c>
       <c r="J109">
         <v>36</v>
       </c>
       <c r="K109">
-        <v>849</v>
+        <v>8082</v>
       </c>
       <c r="L109">
-        <v>1029</v>
+        <v>9052</v>
       </c>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.3">
@@ -7801,19 +7802,19 @@
         <v>36</v>
       </c>
       <c r="C110">
-        <v>5.8658642999998802</v>
+        <v>2.1847230999999798</v>
       </c>
       <c r="D110">
-        <v>7.23189749999983</v>
+        <v>2.0615036000000302</v>
       </c>
       <c r="J110">
         <v>36</v>
       </c>
       <c r="K110">
-        <v>692</v>
+        <v>4596</v>
       </c>
       <c r="L110">
-        <v>896</v>
+        <v>5772</v>
       </c>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.3">
@@ -7821,19 +7822,19 @@
         <v>37</v>
       </c>
       <c r="C111">
-        <v>8.7423846000001504</v>
+        <v>2.32778390000004</v>
       </c>
       <c r="D111">
-        <v>7.7524634000001198</v>
+        <v>2.0671853999999699</v>
       </c>
       <c r="J111">
         <v>37</v>
       </c>
       <c r="K111">
-        <v>593</v>
+        <v>4603</v>
       </c>
       <c r="L111">
-        <v>743</v>
+        <v>11266</v>
       </c>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.3">
@@ -7841,19 +7842,19 @@
         <v>37</v>
       </c>
       <c r="C112">
-        <v>6.7839550000007796</v>
+        <v>2.3105047000000201</v>
       </c>
       <c r="D112">
-        <v>5.9213393999998498</v>
+        <v>2.0545443999999899</v>
       </c>
       <c r="J112">
         <v>37</v>
       </c>
       <c r="K112">
-        <v>698</v>
+        <v>5274</v>
       </c>
       <c r="L112">
-        <v>808</v>
+        <v>5679</v>
       </c>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.3">
@@ -7861,19 +7862,19 @@
         <v>37</v>
       </c>
       <c r="C113">
-        <v>5.7870760999994602</v>
+        <v>1.98646549999995</v>
       </c>
       <c r="D113">
-        <v>5.1933623999993799</v>
+        <v>2.0151576999999099</v>
       </c>
       <c r="J113">
         <v>37</v>
       </c>
       <c r="K113">
-        <v>716</v>
+        <v>4782</v>
       </c>
       <c r="L113">
-        <v>780</v>
+        <v>7026</v>
       </c>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.3">
@@ -7881,19 +7882,19 @@
         <v>38</v>
       </c>
       <c r="C114">
-        <v>5.6027021999998396</v>
+        <v>2.2593193999999799</v>
       </c>
       <c r="D114">
-        <v>5.1776810999999698</v>
+        <v>2.23750760000007</v>
       </c>
       <c r="J114">
         <v>38</v>
       </c>
       <c r="K114">
-        <v>842</v>
+        <v>4946</v>
       </c>
       <c r="L114">
-        <v>977</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.3">
@@ -7901,19 +7902,19 @@
         <v>38</v>
       </c>
       <c r="C115">
-        <v>6.2270308999995896</v>
+        <v>2.2930709999999399</v>
       </c>
       <c r="D115">
-        <v>5.9062918999988998</v>
+        <v>1.86493050000001</v>
       </c>
       <c r="J115">
         <v>38</v>
       </c>
       <c r="K115">
-        <v>549</v>
+        <v>4545</v>
       </c>
       <c r="L115">
-        <v>735</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.3">
@@ -7921,19 +7922,19 @@
         <v>38</v>
       </c>
       <c r="C116">
-        <v>6.5818740000013296</v>
+        <v>2.1611926000000401</v>
       </c>
       <c r="D116">
-        <v>5.4232539000004101</v>
+        <v>1.98016360000008</v>
       </c>
       <c r="J116">
         <v>38</v>
       </c>
       <c r="K116">
-        <v>677</v>
+        <v>5804</v>
       </c>
       <c r="L116">
-        <v>927</v>
+        <v>7952</v>
       </c>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.3">
@@ -7941,19 +7942,19 @@
         <v>39</v>
       </c>
       <c r="C117">
-        <v>8.2549464000003301</v>
+        <v>2.3585994000000001</v>
       </c>
       <c r="D117">
-        <v>7.8414161000000604</v>
+        <v>2.2619022999999698</v>
       </c>
       <c r="J117">
         <v>39</v>
       </c>
       <c r="K117">
-        <v>693</v>
+        <v>5003</v>
       </c>
       <c r="L117">
-        <v>1120</v>
+        <v>6530</v>
       </c>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.3">
@@ -7961,19 +7962,19 @@
         <v>39</v>
       </c>
       <c r="C118">
-        <v>8.61160240000026</v>
+        <v>2.2595317999999902</v>
       </c>
       <c r="D118">
-        <v>8.653295600001</v>
+        <v>2.2031282999999999</v>
       </c>
       <c r="J118">
         <v>39</v>
       </c>
       <c r="K118">
-        <v>767</v>
+        <v>9084</v>
       </c>
       <c r="L118">
-        <v>860</v>
+        <v>9337</v>
       </c>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.3">
@@ -7981,19 +7982,1306 @@
         <v>39</v>
       </c>
       <c r="C119">
-        <v>8.8882555999989492</v>
+        <v>1.9311600999999401</v>
       </c>
       <c r="D119">
-        <v>8.8719161999997596</v>
+        <v>2.1661320999999099</v>
       </c>
       <c r="J119">
         <v>39</v>
       </c>
       <c r="K119">
-        <v>528</v>
+        <v>4296</v>
       </c>
       <c r="L119">
-        <v>590</v>
+        <v>6786</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>1.43960639999999</v>
+      </c>
+      <c r="D120">
+        <v>1.5587050999999901</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>1.4809546</v>
+      </c>
+      <c r="D121">
+        <v>1.58833</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>1.842157</v>
+      </c>
+      <c r="D122">
+        <v>2.0274538</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>1.8335158</v>
+      </c>
+      <c r="D123">
+        <v>1.7498476999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <v>1.9922150000000001</v>
+      </c>
+      <c r="D124">
+        <v>2.1457692000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <v>2.7795918999999998</v>
+      </c>
+      <c r="D125">
+        <v>2.6046521999999901</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>3</v>
+      </c>
+      <c r="C126">
+        <v>2.2625484999999901</v>
+      </c>
+      <c r="D126">
+        <v>2.1455272000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>2.1068056999999998</v>
+      </c>
+      <c r="D127">
+        <v>2.4663241</v>
+      </c>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>2.83909129999999</v>
+      </c>
+      <c r="D128">
+        <v>2.54877189999999</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>2.0769837999999998</v>
+      </c>
+      <c r="D129">
+        <v>2.3990021000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>2.4466027999999902</v>
+      </c>
+      <c r="D130">
+        <v>2.4736227999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>4</v>
+      </c>
+      <c r="C131">
+        <v>2.2746111999999901</v>
+      </c>
+      <c r="D131">
+        <v>2.2585299999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>5</v>
+      </c>
+      <c r="C132">
+        <v>2.2302493999999999</v>
+      </c>
+      <c r="D132">
+        <v>2.0513042999999902</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>2.3015374</v>
+      </c>
+      <c r="D133">
+        <v>2.1600637999999801</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>5</v>
+      </c>
+      <c r="C134">
+        <v>2.5569217000000002</v>
+      </c>
+      <c r="D134">
+        <v>2.3749112999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>6</v>
+      </c>
+      <c r="C135">
+        <v>2.2783398000000101</v>
+      </c>
+      <c r="D135">
+        <v>2.2692990999999898</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>6</v>
+      </c>
+      <c r="C136">
+        <v>2.3277387999999899</v>
+      </c>
+      <c r="D136">
+        <v>2.6191770999999799</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>6</v>
+      </c>
+      <c r="C137">
+        <v>2.41017089999999</v>
+      </c>
+      <c r="D137">
+        <v>2.57600069999999</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>7</v>
+      </c>
+      <c r="C138">
+        <v>2.1713895999999901</v>
+      </c>
+      <c r="D138">
+        <v>2.8270894999999898</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>7</v>
+      </c>
+      <c r="C139">
+        <v>2.4462402999999902</v>
+      </c>
+      <c r="D139">
+        <v>2.5672849000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>7</v>
+      </c>
+      <c r="C140">
+        <v>2.6150753</v>
+      </c>
+      <c r="D140">
+        <v>2.24959499999999</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>8</v>
+      </c>
+      <c r="C141">
+        <v>2.2205262000000001</v>
+      </c>
+      <c r="D141">
+        <v>2.68423389999999</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>8</v>
+      </c>
+      <c r="C142">
+        <v>2.4846543999999802</v>
+      </c>
+      <c r="D142">
+        <v>2.8160699999999901</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <v>8</v>
+      </c>
+      <c r="C143">
+        <v>2.3015979000000102</v>
+      </c>
+      <c r="D143">
+        <v>2.4563490000000101</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <v>9</v>
+      </c>
+      <c r="C144">
+        <v>2.3324058000000001</v>
+      </c>
+      <c r="D144">
+        <v>2.3117344000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <v>9</v>
+      </c>
+      <c r="C145">
+        <v>2.2415286999999999</v>
+      </c>
+      <c r="D145">
+        <v>2.2119968000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <v>9</v>
+      </c>
+      <c r="C146">
+        <v>2.4172365</v>
+      </c>
+      <c r="D146">
+        <v>1.9725592999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <v>10</v>
+      </c>
+      <c r="C147">
+        <v>2.1343815999999798</v>
+      </c>
+      <c r="D147">
+        <v>1.9979253000000099</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <v>10</v>
+      </c>
+      <c r="C148">
+        <v>2.2437301999999799</v>
+      </c>
+      <c r="D148">
+        <v>2.2927735000000098</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <v>10</v>
+      </c>
+      <c r="C149">
+        <v>2.3335906999999998</v>
+      </c>
+      <c r="D149">
+        <v>2.26910769999997</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <v>11</v>
+      </c>
+      <c r="C150">
+        <v>2.03475679999999</v>
+      </c>
+      <c r="D150">
+        <v>1.9701382999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <v>11</v>
+      </c>
+      <c r="C151">
+        <v>2.33749249999999</v>
+      </c>
+      <c r="D151">
+        <v>2.15121709999999</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>11</v>
+      </c>
+      <c r="C152">
+        <v>2.6794516000000201</v>
+      </c>
+      <c r="D152">
+        <v>2.0437667999999798</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>12</v>
+      </c>
+      <c r="C153">
+        <v>2.1869905999999699</v>
+      </c>
+      <c r="D153">
+        <v>2.0351984000000098</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>12</v>
+      </c>
+      <c r="C154">
+        <v>2.1960928999999898</v>
+      </c>
+      <c r="D154">
+        <v>2.2350504</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>12</v>
+      </c>
+      <c r="C155">
+        <v>2.26427789999999</v>
+      </c>
+      <c r="D155">
+        <v>2.25796920000001</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>13</v>
+      </c>
+      <c r="C156">
+        <v>1.9959770999999999</v>
+      </c>
+      <c r="D156">
+        <v>1.99679329999997</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>13</v>
+      </c>
+      <c r="C157">
+        <v>2.0392337999999999</v>
+      </c>
+      <c r="D157">
+        <v>2.2234511000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>13</v>
+      </c>
+      <c r="C158">
+        <v>2.37625259999998</v>
+      </c>
+      <c r="D158">
+        <v>2.2452748999999899</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B159">
+        <v>14</v>
+      </c>
+      <c r="C159">
+        <v>2.1202277000000098</v>
+      </c>
+      <c r="D159">
+        <v>2.0133060999999901</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>14</v>
+      </c>
+      <c r="C160">
+        <v>2.0587634000000001</v>
+      </c>
+      <c r="D160">
+        <v>2.1553697999999799</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>14</v>
+      </c>
+      <c r="C161">
+        <v>2.2094428000000002</v>
+      </c>
+      <c r="D161">
+        <v>2.4468529999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>15</v>
+      </c>
+      <c r="C162">
+        <v>1.9983493000000001</v>
+      </c>
+      <c r="D162">
+        <v>2.0087929</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>15</v>
+      </c>
+      <c r="C163">
+        <v>2.0528754</v>
+      </c>
+      <c r="D163">
+        <v>2.0205258999999902</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <v>15</v>
+      </c>
+      <c r="C164">
+        <v>2.4651464999999999</v>
+      </c>
+      <c r="D164">
+        <v>2.0121904999999698</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>16</v>
+      </c>
+      <c r="C165">
+        <v>2.3197945</v>
+      </c>
+      <c r="D165">
+        <v>2.0064281999999798</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>16</v>
+      </c>
+      <c r="C166">
+        <v>1.95614</v>
+      </c>
+      <c r="D166">
+        <v>2.0747827999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <v>16</v>
+      </c>
+      <c r="C167">
+        <v>2.1835533999999899</v>
+      </c>
+      <c r="D167">
+        <v>2.3967123000000101</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>17</v>
+      </c>
+      <c r="C168">
+        <v>2.2872021999999901</v>
+      </c>
+      <c r="D168">
+        <v>1.98208869999999</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>17</v>
+      </c>
+      <c r="C169">
+        <v>2.2260945000000101</v>
+      </c>
+      <c r="D169">
+        <v>1.97199699999998</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>17</v>
+      </c>
+      <c r="C170">
+        <v>2.2475405000000102</v>
+      </c>
+      <c r="D170">
+        <v>2.1803996000000101</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <v>18</v>
+      </c>
+      <c r="C171">
+        <v>2.4680711</v>
+      </c>
+      <c r="D171">
+        <v>2.1699936999999601</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <v>18</v>
+      </c>
+      <c r="C172">
+        <v>1.9747469999999701</v>
+      </c>
+      <c r="D172">
+        <v>2.0517993000000199</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <v>18</v>
+      </c>
+      <c r="C173">
+        <v>2.1262673999999602</v>
+      </c>
+      <c r="D173">
+        <v>2.3142876000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <v>19</v>
+      </c>
+      <c r="C174">
+        <v>2.1983969999999999</v>
+      </c>
+      <c r="D174">
+        <v>2.1932242000000302</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <v>19</v>
+      </c>
+      <c r="C175">
+        <v>2.0801195999999802</v>
+      </c>
+      <c r="D175">
+        <v>1.96086980000001</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <v>19</v>
+      </c>
+      <c r="C176">
+        <v>2.0785341999999698</v>
+      </c>
+      <c r="D176">
+        <v>2.2421911000000101</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>20</v>
+      </c>
+      <c r="C177">
+        <v>2.3074569999999901</v>
+      </c>
+      <c r="D177">
+        <v>2.2556308</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <v>20</v>
+      </c>
+      <c r="C178">
+        <v>1.9182599</v>
+      </c>
+      <c r="D178">
+        <v>2.0873682999999801</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <v>20</v>
+      </c>
+      <c r="C179">
+        <v>2.0183153999999401</v>
+      </c>
+      <c r="D179">
+        <v>2.3752867999999601</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <v>21</v>
+      </c>
+      <c r="C180">
+        <v>2.0328652999999601</v>
+      </c>
+      <c r="D180">
+        <v>2.2538453999999799</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <v>21</v>
+      </c>
+      <c r="C181">
+        <v>2.3472260999999999</v>
+      </c>
+      <c r="D181">
+        <v>1.9752324999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <v>21</v>
+      </c>
+      <c r="C182">
+        <v>2.1179923999999901</v>
+      </c>
+      <c r="D182">
+        <v>2.1215632000000202</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <v>22</v>
+      </c>
+      <c r="C183">
+        <v>2.7990748000000201</v>
+      </c>
+      <c r="D183">
+        <v>2.1961277000000301</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>22</v>
+      </c>
+      <c r="C184">
+        <v>1.9502883999999701</v>
+      </c>
+      <c r="D184">
+        <v>2.1574610999999702</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <v>22</v>
+      </c>
+      <c r="C185">
+        <v>1.9794160000000101</v>
+      </c>
+      <c r="D185">
+        <v>2.3618149000000099</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <v>23</v>
+      </c>
+      <c r="C186">
+        <v>2.27254530000004</v>
+      </c>
+      <c r="D186">
+        <v>2.33080689999997</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <v>23</v>
+      </c>
+      <c r="C187">
+        <v>2.0694596000000098</v>
+      </c>
+      <c r="D187">
+        <v>1.93764370000002</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <v>23</v>
+      </c>
+      <c r="C188">
+        <v>2.0984970000000001</v>
+      </c>
+      <c r="D188">
+        <v>2.07141000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <v>24</v>
+      </c>
+      <c r="C189">
+        <v>2.3167523000000099</v>
+      </c>
+      <c r="D189">
+        <v>2.1676871999999801</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <v>24</v>
+      </c>
+      <c r="C190">
+        <v>2.0721226000000001</v>
+      </c>
+      <c r="D190">
+        <v>2.1791002999999498</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <v>24</v>
+      </c>
+      <c r="C191">
+        <v>1.9863915000000201</v>
+      </c>
+      <c r="D191">
+        <v>2.2015617000000098</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <v>25</v>
+      </c>
+      <c r="C192">
+        <v>2.1574180999999699</v>
+      </c>
+      <c r="D192">
+        <v>2.2550142000000002</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <v>25</v>
+      </c>
+      <c r="C193">
+        <v>2.3011853999999499</v>
+      </c>
+      <c r="D193">
+        <v>1.89935439999999</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <v>25</v>
+      </c>
+      <c r="C194">
+        <v>2.1829541000000101</v>
+      </c>
+      <c r="D194">
+        <v>2.0704567000000198</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <v>26</v>
+      </c>
+      <c r="C195">
+        <v>2.2447369999999802</v>
+      </c>
+      <c r="D195">
+        <v>2.3685894999999801</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>26</v>
+      </c>
+      <c r="C196">
+        <v>2.0987299000000199</v>
+      </c>
+      <c r="D196">
+        <v>2.1144745999999901</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <v>26</v>
+      </c>
+      <c r="C197">
+        <v>1.92694790000001</v>
+      </c>
+      <c r="D197">
+        <v>2.08175909999999</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <v>27</v>
+      </c>
+      <c r="C198">
+        <v>2.2917997000000101</v>
+      </c>
+      <c r="D198">
+        <v>2.3722052999999601</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <v>27</v>
+      </c>
+      <c r="C199">
+        <v>2.1936853999999899</v>
+      </c>
+      <c r="D199">
+        <v>1.98948159999997</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <v>27</v>
+      </c>
+      <c r="C200">
+        <v>2.1053172</v>
+      </c>
+      <c r="D200">
+        <v>1.9658420000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B201">
+        <v>28</v>
+      </c>
+      <c r="C201">
+        <v>2.1740227000000201</v>
+      </c>
+      <c r="D201">
+        <v>2.47723719999999</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B202">
+        <v>28</v>
+      </c>
+      <c r="C202">
+        <v>2.2031284999999898</v>
+      </c>
+      <c r="D202">
+        <v>2.0785040000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B203">
+        <v>28</v>
+      </c>
+      <c r="C203">
+        <v>1.90231879999998</v>
+      </c>
+      <c r="D203">
+        <v>2.1682006999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B204">
+        <v>29</v>
+      </c>
+      <c r="C204">
+        <v>2.2446451000000098</v>
+      </c>
+      <c r="D204">
+        <v>2.1625692000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B205">
+        <v>29</v>
+      </c>
+      <c r="C205">
+        <v>2.1738795999999598</v>
+      </c>
+      <c r="D205">
+        <v>2.0082605</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B206">
+        <v>29</v>
+      </c>
+      <c r="C206">
+        <v>2.1256066000000202</v>
+      </c>
+      <c r="D206">
+        <v>1.9929914000000499</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B207">
+        <v>30</v>
+      </c>
+      <c r="C207">
+        <v>2.2549356999999701</v>
+      </c>
+      <c r="D207">
+        <v>2.3820563000000399</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B208">
+        <v>30</v>
+      </c>
+      <c r="C208">
+        <v>2.2015146999999602</v>
+      </c>
+      <c r="D208">
+        <v>2.1381573999999501</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B209">
+        <v>30</v>
+      </c>
+      <c r="C209">
+        <v>1.99909920000004</v>
+      </c>
+      <c r="D209">
+        <v>2.0749809000000101</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B210">
+        <v>31</v>
+      </c>
+      <c r="C210">
+        <v>2.2920551000000202</v>
+      </c>
+      <c r="D210">
+        <v>2.1607413000000402</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B211">
+        <v>31</v>
+      </c>
+      <c r="C211">
+        <v>2.30825510000005</v>
+      </c>
+      <c r="D211">
+        <v>2.0013439000000499</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B212">
+        <v>31</v>
+      </c>
+      <c r="C212">
+        <v>1.9773786</v>
+      </c>
+      <c r="D212">
+        <v>2.04472739999999</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B213">
+        <v>32</v>
+      </c>
+      <c r="C213">
+        <v>2.2912574000000001</v>
+      </c>
+      <c r="D213">
+        <v>2.4089572999999902</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B214">
+        <v>32</v>
+      </c>
+      <c r="C214">
+        <v>2.2106939999999802</v>
+      </c>
+      <c r="D214">
+        <v>2.06069660000002</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B215">
+        <v>32</v>
+      </c>
+      <c r="C215">
+        <v>1.96278419999998</v>
+      </c>
+      <c r="D215">
+        <v>2.0130808000000102</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B216">
+        <v>33</v>
+      </c>
+      <c r="C216">
+        <v>2.32288529999999</v>
+      </c>
+      <c r="D216">
+        <v>2.1459470999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B217">
+        <v>33</v>
+      </c>
+      <c r="C217">
+        <v>2.2820450999999999</v>
+      </c>
+      <c r="D217">
+        <v>1.9860802</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B218">
+        <v>33</v>
+      </c>
+      <c r="C218">
+        <v>1.9771192</v>
+      </c>
+      <c r="D218">
+        <v>2.10296959999999</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B219">
+        <v>34</v>
+      </c>
+      <c r="C219">
+        <v>2.1678147999999702</v>
+      </c>
+      <c r="D219">
+        <v>2.39802179999998</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B220">
+        <v>34</v>
+      </c>
+      <c r="C220">
+        <v>2.2284395000000301</v>
+      </c>
+      <c r="D220">
+        <v>1.99466970000003</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B221">
+        <v>34</v>
+      </c>
+      <c r="C221">
+        <v>2.0329290999999898</v>
+      </c>
+      <c r="D221">
+        <v>2.12989859999999</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B222">
+        <v>35</v>
+      </c>
+      <c r="C222">
+        <v>2.2514408999999702</v>
+      </c>
+      <c r="D222">
+        <v>2.3145377999999801</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B223">
+        <v>35</v>
+      </c>
+      <c r="C223">
+        <v>2.1628050000000401</v>
+      </c>
+      <c r="D223">
+        <v>2.0725795999999801</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B224">
+        <v>35</v>
+      </c>
+      <c r="C224">
+        <v>2.0151552000000299</v>
+      </c>
+      <c r="D224">
+        <v>2.0640978000000101</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B225">
+        <v>36</v>
+      </c>
+      <c r="C225">
+        <v>2.2066341999999901</v>
+      </c>
+      <c r="D225">
+        <v>2.45298020000001</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B226">
+        <v>36</v>
+      </c>
+      <c r="C226">
+        <v>2.2184084999999998</v>
+      </c>
+      <c r="D226">
+        <v>1.9355937000000201</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B227">
+        <v>36</v>
+      </c>
+      <c r="C227">
+        <v>2.1847230999999798</v>
+      </c>
+      <c r="D227">
+        <v>2.0615036000000302</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B228">
+        <v>37</v>
+      </c>
+      <c r="C228">
+        <v>2.32778390000004</v>
+      </c>
+      <c r="D228">
+        <v>2.0671853999999699</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B229">
+        <v>37</v>
+      </c>
+      <c r="C229">
+        <v>2.3105047000000201</v>
+      </c>
+      <c r="D229">
+        <v>2.0545443999999899</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B230">
+        <v>37</v>
+      </c>
+      <c r="C230">
+        <v>1.98646549999995</v>
+      </c>
+      <c r="D230">
+        <v>2.0151576999999099</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B231">
+        <v>38</v>
+      </c>
+      <c r="C231">
+        <v>2.2593193999999799</v>
+      </c>
+      <c r="D231">
+        <v>2.23750760000007</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B232">
+        <v>38</v>
+      </c>
+      <c r="C232">
+        <v>2.2930709999999399</v>
+      </c>
+      <c r="D232">
+        <v>1.86493050000001</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B233">
+        <v>38</v>
+      </c>
+      <c r="C233">
+        <v>2.1611926000000401</v>
+      </c>
+      <c r="D233">
+        <v>1.98016360000008</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B234">
+        <v>39</v>
+      </c>
+      <c r="C234">
+        <v>2.3585994000000001</v>
+      </c>
+      <c r="D234">
+        <v>2.2619022999999698</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B235">
+        <v>39</v>
+      </c>
+      <c r="C235">
+        <v>2.2595317999999902</v>
+      </c>
+      <c r="D235">
+        <v>2.2031282999999999</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B236">
+        <v>39</v>
+      </c>
+      <c r="C236">
+        <v>1.9311600999999401</v>
+      </c>
+      <c r="D236">
+        <v>2.1661320999999099</v>
       </c>
     </row>
   </sheetData>

--- a/lab9analysis.xlsx
+++ b/lab9analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1418fc52008665ae/Documents/2XC3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="11_F25DC773A252ABDACC104871315B59F85BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C1552EF-0108-4B15-8F04-97147FB15B9F}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="11_F25DC773A252ABDACC104871315B59F85BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{132B9991-BA9E-49B4-BF55-85A291B5EAAB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>k</t>
   </si>
@@ -59,6 +59,21 @@
   </si>
   <si>
     <t>ratio</t>
+  </si>
+  <si>
+    <t>nodes</t>
+  </si>
+  <si>
+    <t>dijkstra</t>
+  </si>
+  <si>
+    <t>mystery</t>
+  </si>
+  <si>
+    <t>time(raw)</t>
+  </si>
+  <si>
+    <t>time(avg)</t>
   </si>
 </sst>
 </file>
@@ -2448,6 +2463,1241 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> of all-pairs algorithms vs. V</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bellman-ford</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$3:$V$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$3:$W$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>7.6666668367882338E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7699999564986931E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3033334198601802E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4826666665612701E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9223333331174168E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.505333322924918E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5152333332177133E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4611666667624364E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1352000005426765E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7858666659740231E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2941733333718702E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4357633333323331E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8220366666961699E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4451733333383602E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4652599999996363E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.1227733333774531E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0614499999937772E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3432733333684099E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.0265466666484458E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.117916333333899</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.13621320000008</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20692003333351697</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.20832923333303635</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26202736666649135</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24276003333337268</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26995529999961304</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.32127663333327833</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.44669559999965669</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.72653736666688873</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.79264643333347762</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99359466666707297</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.99958493333300058</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2310420666672066</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.4021612999998301</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.6976642999998102</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.04469140000037</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.3542656333338496</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.4843171333328997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.5598911333339198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0172-4FF9-8179-C82451C57134}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dijkstra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$3:$V$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$3:$X$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>2.0433333702385368E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7500000315873537E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0910000006939865E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9853333287755902E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6100000044001066E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7616666597605196E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4689999989156254E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0479999986806797E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1295999993308171E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.69983333338071E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8744333333937232E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.811266666161823E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3616666660236604E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4178999996802235E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.2717333334536863E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.9077666664961656E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.9544333334003233E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.4703999992683096E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.15020000037232E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4902899999772934E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1429266665800214E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5134499999476201E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.66736333333877E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.750366666684077E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6163166666349999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7328933333677268E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8974966666670836E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.6529933332615902E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.9699800000259196E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.2958666666284701E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.6293999999761561E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.0471999999596499E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.6115500000184164E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.7972900000701537E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.8061866666539503E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.9534333333261473E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.7022000000312419E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.103332599999703</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.10954849999992156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0172-4FF9-8179-C82451C57134}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mystery</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3220569651015845E-2"/>
+                  <c:y val="0.27146551157187354"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$3:$V$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$3:$Y$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>7.3999999585794226E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3033333137476132E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7333333491696932E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9966666362403539E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4466666673154835E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.081999992796528E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3393333332108569E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8083333391890168E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8726666651976533E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2399999933356067E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7429999964757936E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6443333293524668E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.2573333333517988E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0793333290784771E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.9899999946064727E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.2519999947786938E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0331666665782276E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2379333335654E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3978666665934666E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8641666671707433E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7547666672423133E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4626000007022665E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6384333329284898E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.1103666662820572E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4542333327796434E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0009333331690834E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1523666663512435E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.9265333331665363E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.9420333333643259E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.360966666155334E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.2947666667459929E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.948400000207273E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.9099999998627933E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.5052000000966146E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1203033333610279E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.2099266665851821E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.2755133333484965E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5570033333157533E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5781933333831401E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0172-4FF9-8179-C82451C57134}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1267790127"/>
+        <c:axId val="1267780975"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1267790127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1267780975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1267780975"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1267790127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2529,6 +3779,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4116,6 +5406,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4158,14 +5964,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4223,6 +6029,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62F569D7-6B22-49F5-92B6-8592CCE5D27B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4494,15 +6336,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O236"/>
+  <dimension ref="B1:Y236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:L119"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:Y41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="23" max="24" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
@@ -4523,8 +6368,20 @@
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+    </row>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4564,8 +6421,32 @@
       <c r="O2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -4612,8 +6493,36 @@
         <f ca="1">AVERAGE(OFFSET($L$3,(ROW()-ROW($O$3))*3,,3,))</f>
         <v>2365520</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1.03000002127373E-5</v>
+      </c>
+      <c r="T3">
+        <v>2.5700001060613401E-5</v>
+      </c>
+      <c r="U3">
+        <v>7.7000004239380292E-6</v>
+      </c>
+      <c r="V3">
+        <f ca="1">AVERAGE(OFFSET($R$3,(ROW()-ROW($V$3))*3,,3,))</f>
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <f ca="1">AVERAGE(OFFSET($S$3,(ROW()-ROW($W$3))*3,,3,))</f>
+        <v>7.6666668367882338E-6</v>
+      </c>
+      <c r="X3">
+        <f ca="1">AVERAGE(OFFSET($T$3,(ROW()-ROW($X$3))*3,,3,))</f>
+        <v>2.0433333702385368E-5</v>
+      </c>
+      <c r="Y3">
+        <f ca="1">AVERAGE(OFFSET($U$3,(ROW()-ROW($Y$3))*3,,3,))</f>
+        <v>7.3999999585794226E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -4660,8 +6569,36 @@
         <f t="shared" ref="O4:O41" ca="1" si="6">AVERAGE(OFFSET($L$3,(ROW()-ROW($O$3))*3,,3,))</f>
         <v>420003</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>6.3000006775837298E-6</v>
+      </c>
+      <c r="T4">
+        <v>1.6300000424962399E-5</v>
+      </c>
+      <c r="U4">
+        <v>6.8999997893115497E-6</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V67" ca="1" si="7">AVERAGE(OFFSET($R$3,(ROW()-ROW($V$3))*3,,3,))</f>
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W41" ca="1" si="8">AVERAGE(OFFSET($S$3,(ROW()-ROW($W$3))*3,,3,))</f>
+        <v>1.7699999564986931E-5</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X41" ca="1" si="9">AVERAGE(OFFSET($T$3,(ROW()-ROW($X$3))*3,,3,))</f>
+        <v>4.7500000315873537E-5</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y41" ca="1" si="10">AVERAGE(OFFSET($U$3,(ROW()-ROW($Y$3))*3,,3,))</f>
+        <v>1.3033333137476132E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -4708,8 +6645,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>138471.33333333334</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>6.3999996200436701E-6</v>
+      </c>
+      <c r="T5">
+        <v>1.9299999621580301E-5</v>
+      </c>
+      <c r="U5">
+        <v>7.5999996624886896E-6</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ca="1" si="8"/>
+        <v>4.3033334198601802E-5</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.0910000006939865E-4</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.7333333491696932E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2</v>
       </c>
@@ -4756,8 +6721,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>92196.666666666672</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>1.7099999240599502E-5</v>
+      </c>
+      <c r="T6">
+        <v>5.40000000910367E-5</v>
+      </c>
+      <c r="U6">
+        <v>1.3900000340072399E-5</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.4826666665612701E-4</v>
+      </c>
+      <c r="X6">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.9853333287755902E-4</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" ca="1" si="10"/>
+        <v>4.9966666362403539E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>2</v>
       </c>
@@ -4804,8 +6797,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>45541</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>1.46999991557095E-5</v>
+      </c>
+      <c r="T7">
+        <v>4.1100000089500099E-5</v>
+      </c>
+      <c r="U7">
+        <v>1.20999993669101E-5</v>
+      </c>
+      <c r="V7">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.9223333331174168E-4</v>
+      </c>
+      <c r="X7">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.6100000044001066E-4</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" ca="1" si="10"/>
+        <v>5.4466666673154835E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
@@ -4852,8 +6873,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>47629.333333333336</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>2.1300000298651799E-5</v>
+      </c>
+      <c r="T8">
+        <v>4.7400000767083798E-5</v>
+      </c>
+      <c r="U8">
+        <v>1.30999997054459E-5</v>
+      </c>
+      <c r="V8">
+        <f t="shared" ca="1" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="W8">
+        <f t="shared" ca="1" si="8"/>
+        <v>8.505333322924918E-4</v>
+      </c>
+      <c r="X8">
+        <f t="shared" ca="1" si="9"/>
+        <v>4.7616666597605196E-4</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.081999992796528E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>3</v>
       </c>
@@ -4900,8 +6949,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>33621.333333333336</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>4.9900001613423201E-5</v>
+      </c>
+      <c r="T9">
+        <v>1.0850000035134099E-4</v>
+      </c>
+      <c r="U9">
+        <v>3.2100000680657097E-5</v>
+      </c>
+      <c r="V9">
+        <f t="shared" ca="1" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="W9">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.5152333332177133E-3</v>
+      </c>
+      <c r="X9">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.4689999989156254E-4</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.3393333332108569E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>3</v>
       </c>
@@ -4948,8 +7025,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>34338.666666666664</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>4.0099999750964303E-5</v>
+      </c>
+      <c r="T10">
+        <v>8.5600000602425994E-5</v>
+      </c>
+      <c r="U10">
+        <v>2.01000002562068E-5</v>
+      </c>
+      <c r="V10">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="W10">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.4611666667624364E-3</v>
+      </c>
+      <c r="X10">
+        <f t="shared" ca="1" si="9"/>
+        <v>9.0479999986806797E-4</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.8083333391890168E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>3</v>
       </c>
@@ -4996,8 +7101,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>24986.666666666668</v>
       </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>3.9100001231417903E-5</v>
+      </c>
+      <c r="T11">
+        <v>1.3319999925442901E-4</v>
+      </c>
+      <c r="U11">
+        <v>2.97999995382269E-5</v>
+      </c>
+      <c r="V11">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="W11">
+        <f t="shared" ca="1" si="8"/>
+        <v>3.1352000005426765E-3</v>
+      </c>
+      <c r="X11">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.1295999993308171E-3</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.8726666651976533E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>4</v>
       </c>
@@ -5044,8 +7177,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>22288</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <v>1.8400000044493901E-4</v>
+      </c>
+      <c r="T12">
+        <v>2.29499999477411E-4</v>
+      </c>
+      <c r="U12">
+        <v>5.2699999287142398E-5</v>
+      </c>
+      <c r="V12">
+        <f t="shared" ca="1" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="W12">
+        <f t="shared" ca="1" si="8"/>
+        <v>5.7858666659740231E-3</v>
+      </c>
+      <c r="X12">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.69983333338071E-3</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" ca="1" si="10"/>
+        <v>3.2399999933356067E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>4</v>
       </c>
@@ -5092,8 +7253,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>22911.666666666668</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R13">
+        <v>4</v>
+      </c>
+      <c r="S13">
+        <v>1.04799999462557E-4</v>
+      </c>
+      <c r="T13">
+        <v>2.2639999951934401E-4</v>
+      </c>
+      <c r="U13">
+        <v>4.8800000513438102E-5</v>
+      </c>
+      <c r="V13">
+        <f t="shared" ca="1" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="W13">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.2941733333718702E-2</v>
+      </c>
+      <c r="X13">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.8744333333937232E-3</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" ca="1" si="10"/>
+        <v>4.7429999964757936E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>4</v>
       </c>
@@ -5140,8 +7329,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>19145.333333333332</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R14">
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <v>1.56000000060885E-4</v>
+      </c>
+      <c r="T14">
+        <v>1.3969999963592199E-4</v>
+      </c>
+      <c r="U14">
+        <v>4.8399999286630103E-5</v>
+      </c>
+      <c r="V14">
+        <f t="shared" ca="1" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.4357633333323331E-2</v>
+      </c>
+      <c r="X14">
+        <f t="shared" ca="1" si="9"/>
+        <v>3.811266666161823E-3</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" ca="1" si="10"/>
+        <v>5.6443333293524668E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>5</v>
       </c>
@@ -5188,8 +7405,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>17743</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R15">
+        <v>5</v>
+      </c>
+      <c r="S15">
+        <v>2.8639999982260601E-4</v>
+      </c>
+      <c r="T15">
+        <v>2.80299998848931E-4</v>
+      </c>
+      <c r="U15">
+        <v>5.5200000133481801E-5</v>
+      </c>
+      <c r="V15">
+        <f t="shared" ca="1" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="W15">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.8220366666961699E-2</v>
+      </c>
+      <c r="X15">
+        <f t="shared" ca="1" si="9"/>
+        <v>3.3616666660236604E-3</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" ca="1" si="10"/>
+        <v>7.2573333333517988E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>5</v>
       </c>
@@ -5236,8 +7481,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>15844.666666666666</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R16">
+        <v>5</v>
+      </c>
+      <c r="S16">
+        <v>3.3729999995557499E-4</v>
+      </c>
+      <c r="T16">
+        <v>2.7490000138641303E-4</v>
+      </c>
+      <c r="U16">
+        <v>6.0200000007171103E-5</v>
+      </c>
+      <c r="V16">
+        <f t="shared" ca="1" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="W16">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.4451733333383602E-2</v>
+      </c>
+      <c r="X16">
+        <f t="shared" ca="1" si="9"/>
+        <v>4.4178999996802235E-3</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" ca="1" si="10"/>
+        <v>8.0793333290784771E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>5</v>
       </c>
@@ -5284,8 +7557,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>14659.333333333334</v>
       </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R17">
+        <v>5</v>
+      </c>
+      <c r="S17">
+        <v>2.53000000157044E-4</v>
+      </c>
+      <c r="T17">
+        <v>2.2780000108468801E-4</v>
+      </c>
+      <c r="U17">
+        <v>4.7999999878811603E-5</v>
+      </c>
+      <c r="V17">
+        <f t="shared" ca="1" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="W17">
+        <f t="shared" ca="1" si="8"/>
+        <v>3.4652599999996363E-2</v>
+      </c>
+      <c r="X17">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.2717333334536863E-3</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" ca="1" si="10"/>
+        <v>7.9899999946064727E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>6</v>
       </c>
@@ -5332,8 +7633,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>19067.666666666668</v>
       </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R18">
+        <v>6</v>
+      </c>
+      <c r="S18">
+        <v>1.04539999847474E-3</v>
+      </c>
+      <c r="T18">
+        <v>6.1949999872012995E-4</v>
+      </c>
+      <c r="U18">
+        <v>1.25099999422673E-4</v>
+      </c>
+      <c r="V18">
+        <f t="shared" ca="1" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="W18">
+        <f t="shared" ca="1" si="8"/>
+        <v>4.1227733333774531E-2</v>
+      </c>
+      <c r="X18">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.9077666664961656E-3</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" ca="1" si="10"/>
+        <v>8.2519999947786938E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>6</v>
       </c>
@@ -5380,8 +7709,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>13877</v>
       </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R19">
+        <v>6</v>
+      </c>
+      <c r="S19">
+        <v>9.7049999931186903E-4</v>
+      </c>
+      <c r="T19">
+        <v>4.1129999954136998E-4</v>
+      </c>
+      <c r="U19">
+        <v>1.3259999832371201E-4</v>
+      </c>
+      <c r="V19">
+        <f t="shared" ca="1" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="W19">
+        <f t="shared" ca="1" si="8"/>
+        <v>5.0614499999937772E-2</v>
+      </c>
+      <c r="X19">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.9544333334003233E-3</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.0331666665782276E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>6</v>
       </c>
@@ -5428,8 +7785,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>13309.666666666666</v>
       </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R20">
+        <v>6</v>
+      </c>
+      <c r="S20">
+        <v>5.3569999909086597E-4</v>
+      </c>
+      <c r="T20">
+        <v>3.9769999966665599E-4</v>
+      </c>
+      <c r="U20">
+        <v>6.6900000092573396E-5</v>
+      </c>
+      <c r="V20">
+        <f t="shared" ca="1" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="W20">
+        <f t="shared" ca="1" si="8"/>
+        <v>6.3432733333684099E-2</v>
+      </c>
+      <c r="X20">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.4703999992683096E-3</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.2379333335654E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>7</v>
       </c>
@@ -5476,8 +7861,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>17863.666666666668</v>
       </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R21">
+        <v>7</v>
+      </c>
+      <c r="S21">
+        <v>1.1410999995859999E-3</v>
+      </c>
+      <c r="T21">
+        <v>5.0000000010186297E-4</v>
+      </c>
+      <c r="U21">
+        <v>1.00400000519584E-4</v>
+      </c>
+      <c r="V21">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="W21">
+        <f t="shared" ca="1" si="8"/>
+        <v>8.0265466666484458E-2</v>
+      </c>
+      <c r="X21">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.15020000037232E-3</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.3978666665934666E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>7</v>
       </c>
@@ -5524,8 +7937,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>13204.333333333334</v>
       </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R22">
+        <v>7</v>
+      </c>
+      <c r="S22">
+        <v>1.6513000009581399E-3</v>
+      </c>
+      <c r="T22">
+        <v>7.73699999626842E-4</v>
+      </c>
+      <c r="U22">
+        <v>1.19800000902614E-4</v>
+      </c>
+      <c r="V22">
+        <f t="shared" ca="1" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="W22">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.117916333333899</v>
+      </c>
+      <c r="X22">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.4902899999772934E-2</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.8641666671707433E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>7</v>
       </c>
@@ -5572,8 +8013,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>8843.6666666666661</v>
       </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R23">
+        <v>7</v>
+      </c>
+      <c r="S23">
+        <v>1.753299999109E-3</v>
+      </c>
+      <c r="T23">
+        <v>9.6699999994598297E-4</v>
+      </c>
+      <c r="U23">
+        <v>1.8159999854105901E-4</v>
+      </c>
+      <c r="V23">
+        <f t="shared" ca="1" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="W23">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.13621320000008</v>
+      </c>
+      <c r="X23">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.1429266665800214E-2</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.7547666672423133E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>8</v>
       </c>
@@ -5620,8 +8089,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>8075.666666666667</v>
       </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R24">
+        <v>8</v>
+      </c>
+      <c r="S24">
+        <v>2.8910000000905698E-3</v>
+      </c>
+      <c r="T24">
+        <v>1.29299999935028E-3</v>
+      </c>
+      <c r="U24">
+        <v>2.6230000003124501E-4</v>
+      </c>
+      <c r="V24">
+        <f t="shared" ca="1" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="W24">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.20692003333351697</v>
+      </c>
+      <c r="X24">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.5134499999476201E-2</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.4626000007022665E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>8</v>
       </c>
@@ -5668,8 +8165,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>11340</v>
       </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R25">
+        <v>8</v>
+      </c>
+      <c r="S25">
+        <v>1.7879999995784599E-3</v>
+      </c>
+      <c r="T25">
+        <v>6.6209999931743303E-4</v>
+      </c>
+      <c r="U25">
+        <v>1.3220000073488301E-4</v>
+      </c>
+      <c r="V25">
+        <f t="shared" ca="1" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="W25">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.20832923333303635</v>
+      </c>
+      <c r="X25">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.66736333333877E-2</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.6384333329284898E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>8</v>
       </c>
@@ -5716,8 +8241,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>9297.3333333333339</v>
       </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R26">
+        <v>8</v>
+      </c>
+      <c r="S26">
+        <v>2.70450000061828E-3</v>
+      </c>
+      <c r="T26">
+        <v>7.5930000093649098E-4</v>
+      </c>
+      <c r="U26">
+        <v>1.48000000990577E-4</v>
+      </c>
+      <c r="V26">
+        <f t="shared" ca="1" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="W26">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.26202736666649135</v>
+      </c>
+      <c r="X26">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.750366666684077E-2</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" ca="1" si="10"/>
+        <v>4.1103666662820572E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>9</v>
       </c>
@@ -5764,8 +8317,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>6129.666666666667</v>
       </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R27">
+        <v>9</v>
+      </c>
+      <c r="S27">
+        <v>2.9064000009384398E-3</v>
+      </c>
+      <c r="T27">
+        <v>1.07079999907E-3</v>
+      </c>
+      <c r="U27">
+        <v>1.9290000091132199E-4</v>
+      </c>
+      <c r="V27">
+        <f t="shared" ca="1" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="W27">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.24276003333337268</v>
+      </c>
+      <c r="X27">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.6163166666349999E-2</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.4542333327796434E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>9</v>
       </c>
@@ -5812,8 +8393,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>13484.333333333334</v>
       </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R28">
+        <v>9</v>
+      </c>
+      <c r="S28">
+        <v>3.4159999995608801E-3</v>
+      </c>
+      <c r="T28">
+        <v>9.9669999872276094E-4</v>
+      </c>
+      <c r="U28">
+        <v>1.77899999471264E-4</v>
+      </c>
+      <c r="V28">
+        <f t="shared" ca="1" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="W28">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.26995529999961304</v>
+      </c>
+      <c r="X28">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.7328933333677268E-2</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" ca="1" si="10"/>
+        <v>3.0009333331690834E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>9</v>
       </c>
@@ -5860,8 +8469,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>7019</v>
       </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R29">
+        <v>9</v>
+      </c>
+      <c r="S29">
+        <v>3.0832000011287099E-3</v>
+      </c>
+      <c r="T29">
+        <v>1.32130000019969E-3</v>
+      </c>
+      <c r="U29">
+        <v>1.9099999917671E-4</v>
+      </c>
+      <c r="V29">
+        <f t="shared" ca="1" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="W29">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.32127663333327833</v>
+      </c>
+      <c r="X29">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.8974966666670836E-2</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" ca="1" si="10"/>
+        <v>3.1523666663512435E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>10</v>
       </c>
@@ -5908,8 +8545,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>7282</v>
       </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R30">
+        <v>10</v>
+      </c>
+      <c r="S30">
+        <v>5.9002999987569603E-3</v>
+      </c>
+      <c r="T30">
+        <v>1.3003000003663999E-3</v>
+      </c>
+      <c r="U30">
+        <v>2.4569999914092402E-4</v>
+      </c>
+      <c r="V30">
+        <f t="shared" ca="1" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="W30">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.44669559999965669</v>
+      </c>
+      <c r="X30">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.6529933332615902E-2</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" ca="1" si="10"/>
+        <v>3.9265333331665363E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>10</v>
       </c>
@@ -5956,8 +8621,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>8732</v>
       </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R31">
+        <v>10</v>
+      </c>
+      <c r="S31">
+        <v>5.3463999993255103E-3</v>
+      </c>
+      <c r="T31">
+        <v>1.60829999913403E-3</v>
+      </c>
+      <c r="U31">
+        <v>2.45399998675566E-4</v>
+      </c>
+      <c r="V31">
+        <f t="shared" ca="1" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="W31">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.72653736666688873</v>
+      </c>
+      <c r="X31">
+        <f t="shared" ca="1" si="9"/>
+        <v>3.9699800000259196E-2</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" ca="1" si="10"/>
+        <v>5.9420333333643259E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>10</v>
       </c>
@@ -6004,8 +8697,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>6857.333333333333</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R32">
+        <v>10</v>
+      </c>
+      <c r="S32">
+        <v>6.1108999998396004E-3</v>
+      </c>
+      <c r="T32">
+        <v>2.1909000006417002E-3</v>
+      </c>
+      <c r="U32">
+        <v>4.80900000184192E-4</v>
+      </c>
+      <c r="V32">
+        <f t="shared" ca="1" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="W32">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.79264643333347762</v>
+      </c>
+      <c r="X32">
+        <f t="shared" ca="1" si="9"/>
+        <v>4.2958666666284701E-2</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" ca="1" si="10"/>
+        <v>6.360966666155334E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>11</v>
       </c>
@@ -6052,8 +8773,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>8245</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R33">
+        <v>11</v>
+      </c>
+      <c r="S33">
+        <v>7.2457000005670099E-3</v>
+      </c>
+      <c r="T33">
+        <v>2.0880000010947601E-3</v>
+      </c>
+      <c r="U33">
+        <v>3.2610000016575203E-4</v>
+      </c>
+      <c r="V33">
+        <f t="shared" ca="1" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="W33">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.99359466666707297</v>
+      </c>
+      <c r="X33">
+        <f t="shared" ca="1" si="9"/>
+        <v>4.6293999999761561E-2</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" ca="1" si="10"/>
+        <v>7.2947666667459929E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>11</v>
       </c>
@@ -6100,8 +8849,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>7364.666666666667</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R34">
+        <v>11</v>
+      </c>
+      <c r="S34">
+        <v>1.26555999995616E-2</v>
+      </c>
+      <c r="T34">
+        <v>2.9319999994186201E-3</v>
+      </c>
+      <c r="U34">
+        <v>5.1809999968099798E-4</v>
+      </c>
+      <c r="V34">
+        <f t="shared" ca="1" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="W34">
+        <f t="shared" ca="1" si="8"/>
+        <v>0.99958493333300058</v>
+      </c>
+      <c r="X34">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.0471999999596499E-2</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" ca="1" si="10"/>
+        <v>6.948400000207273E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>11</v>
       </c>
@@ -6148,8 +8925,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>7441</v>
       </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R35">
+        <v>11</v>
+      </c>
+      <c r="S35">
+        <v>1.8923900001027501E-2</v>
+      </c>
+      <c r="T35">
+        <v>3.6032999996677899E-3</v>
+      </c>
+      <c r="U35">
+        <v>5.7869999909598803E-4</v>
+      </c>
+      <c r="V35">
+        <f t="shared" ca="1" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="W35">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.2310420666672066</v>
+      </c>
+      <c r="X35">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.6115500000184164E-2</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" ca="1" si="10"/>
+        <v>8.9099999998627933E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>12</v>
       </c>
@@ -6196,8 +9001,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>8929.6666666666661</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R36">
+        <v>12</v>
+      </c>
+      <c r="S36">
+        <v>1.8104000000675999E-2</v>
+      </c>
+      <c r="T36">
+        <v>3.9194999990286297E-3</v>
+      </c>
+      <c r="U36">
+        <v>6.70499999614548E-4</v>
+      </c>
+      <c r="V36">
+        <f t="shared" ca="1" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="W36">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.4021612999998301</v>
+      </c>
+      <c r="X36">
+        <f t="shared" ca="1" si="9"/>
+        <v>5.7972900000701537E-2</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" ca="1" si="10"/>
+        <v>8.5052000000966146E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>12</v>
       </c>
@@ -6244,8 +9077,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>7634.666666666667</v>
       </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R37">
+        <v>12</v>
+      </c>
+      <c r="S37">
+        <v>1.2768299999151999E-2</v>
+      </c>
+      <c r="T37">
+        <v>4.0518000005249598E-3</v>
+      </c>
+      <c r="U37">
+        <v>4.17499999457504E-4</v>
+      </c>
+      <c r="V37">
+        <f t="shared" ca="1" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="W37">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.6976642999998102</v>
+      </c>
+      <c r="X37">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.8061866666539503E-2</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.1203033333610279E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>12</v>
       </c>
@@ -6292,8 +9153,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>7931</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R38">
+        <v>12</v>
+      </c>
+      <c r="S38">
+        <v>1.2200600000142E-2</v>
+      </c>
+      <c r="T38">
+        <v>3.4624999989318799E-3</v>
+      </c>
+      <c r="U38">
+        <v>6.0529999973368798E-4</v>
+      </c>
+      <c r="V38">
+        <f t="shared" ca="1" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="W38">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.04469140000037</v>
+      </c>
+      <c r="X38">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.9534333333261473E-2</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.2099266665851821E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>13</v>
       </c>
@@ -6340,8 +9229,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>7990.333333333333</v>
       </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R39">
+        <v>13</v>
+      </c>
+      <c r="S39">
+        <v>2.1415100000012899E-2</v>
+      </c>
+      <c r="T39">
+        <v>4.03849999929661E-3</v>
+      </c>
+      <c r="U39">
+        <v>8.6809999993420195E-4</v>
+      </c>
+      <c r="V39">
+        <f t="shared" ca="1" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="W39">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.3542656333338496</v>
+      </c>
+      <c r="X39">
+        <f t="shared" ca="1" si="9"/>
+        <v>8.7022000000312419E-2</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.2755133333484965E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>13</v>
       </c>
@@ -6388,8 +9305,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>5971.333333333333</v>
       </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R40">
+        <v>13</v>
+      </c>
+      <c r="S40">
+        <v>1.68214000004809E-2</v>
+      </c>
+      <c r="T40">
+        <v>3.1186999985948201E-3</v>
+      </c>
+      <c r="U40">
+        <v>7.8740000026300495E-4</v>
+      </c>
+      <c r="V40">
+        <f t="shared" ca="1" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="W40">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.4843171333328997</v>
+      </c>
+      <c r="X40">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.103332599999703</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.5570033333157533E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>13</v>
       </c>
@@ -6436,8 +9381,36 @@
         <f t="shared" ca="1" si="6"/>
         <v>7551</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R41">
+        <v>13</v>
+      </c>
+      <c r="S41">
+        <v>1.6424600000391299E-2</v>
+      </c>
+      <c r="T41">
+        <v>2.9278000001795499E-3</v>
+      </c>
+      <c r="U41">
+        <v>5.2169999980833295E-4</v>
+      </c>
+      <c r="V41">
+        <f t="shared" ca="1" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="W41">
+        <f t="shared" ca="1" si="8"/>
+        <v>2.5598911333339198</v>
+      </c>
+      <c r="X41">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.10954849999992156</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.5781933333831401E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>14</v>
       </c>
@@ -6456,8 +9429,20 @@
       <c r="L42">
         <v>12223</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R42">
+        <v>14</v>
+      </c>
+      <c r="S42">
+        <v>2.4904300000343899E-2</v>
+      </c>
+      <c r="T42">
+        <v>4.0855999995983404E-3</v>
+      </c>
+      <c r="U42">
+        <v>7.1329999991576101E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>14</v>
       </c>
@@ -6476,8 +9461,20 @@
       <c r="L43">
         <v>10188</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R43">
+        <v>14</v>
+      </c>
+      <c r="S43">
+        <v>2.4239899999884001E-2</v>
+      </c>
+      <c r="T43">
+        <v>4.0939999998954504E-3</v>
+      </c>
+      <c r="U43">
+        <v>1.0891000001720301E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>14</v>
       </c>
@@ -6496,8 +9493,20 @@
       <c r="L44">
         <v>25123</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R44">
+        <v>14</v>
+      </c>
+      <c r="S44">
+        <v>2.4210999999922898E-2</v>
+      </c>
+      <c r="T44">
+        <v>5.0740999995468796E-3</v>
+      </c>
+      <c r="U44">
+        <v>6.2139999863575202E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>15</v>
       </c>
@@ -6516,8 +9525,20 @@
       <c r="L45">
         <v>10288</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R45">
+        <v>15</v>
+      </c>
+      <c r="S45">
+        <v>3.6352999999508001E-2</v>
+      </c>
+      <c r="T45">
+        <v>4.1431999998167096E-3</v>
+      </c>
+      <c r="U45">
+        <v>8.4749999950872702E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>15</v>
       </c>
@@ -6536,8 +9557,20 @@
       <c r="L46">
         <v>16166</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R46">
+        <v>15</v>
+      </c>
+      <c r="S46">
+        <v>3.3381100000042303E-2</v>
+      </c>
+      <c r="T46">
+        <v>7.63690000167116E-3</v>
+      </c>
+      <c r="U46">
+        <v>7.78499999796622E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>15</v>
       </c>
@@ -6556,8 +9589,20 @@
       <c r="L47">
         <v>17524</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="R47">
+        <v>15</v>
+      </c>
+      <c r="S47">
+        <v>3.4223700000438798E-2</v>
+      </c>
+      <c r="T47">
+        <v>4.0350999988731902E-3</v>
+      </c>
+      <c r="U47">
+        <v>7.7099999907659302E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>16</v>
       </c>
@@ -6576,8 +9621,20 @@
       <c r="L48">
         <v>30647</v>
       </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R48">
+        <v>16</v>
+      </c>
+      <c r="S48">
+        <v>3.9761800000633202E-2</v>
+      </c>
+      <c r="T48">
+        <v>6.1272999992070202E-3</v>
+      </c>
+      <c r="U48">
+        <v>8.6270000065269403E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>16</v>
       </c>
@@ -6596,8 +9653,20 @@
       <c r="L49">
         <v>14316</v>
       </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R49">
+        <v>16</v>
+      </c>
+      <c r="S49">
+        <v>3.9654000000155003E-2</v>
+      </c>
+      <c r="T49">
+        <v>5.1428000006126197E-3</v>
+      </c>
+      <c r="U49">
+        <v>7.6719999924534899E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>16</v>
       </c>
@@ -6616,8 +9685,20 @@
       <c r="L50">
         <v>12240</v>
       </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R50">
+        <v>16</v>
+      </c>
+      <c r="S50">
+        <v>4.4267400000535397E-2</v>
+      </c>
+      <c r="T50">
+        <v>6.4531999996688596E-3</v>
+      </c>
+      <c r="U50">
+        <v>8.4569999853556499E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>17</v>
       </c>
@@ -6636,8 +9717,20 @@
       <c r="L51">
         <v>16393</v>
       </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R51">
+        <v>17</v>
+      </c>
+      <c r="S51">
+        <v>4.6259799999461303E-2</v>
+      </c>
+      <c r="T51">
+        <v>6.1791999996785299E-3</v>
+      </c>
+      <c r="U51">
+        <v>9.8319999960949601E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>17</v>
       </c>
@@ -6656,8 +9749,20 @@
       <c r="L52">
         <v>14155</v>
       </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R52">
+        <v>17</v>
+      </c>
+      <c r="S52">
+        <v>4.9994900000456199E-2</v>
+      </c>
+      <c r="T52">
+        <v>8.2579999998415501E-3</v>
+      </c>
+      <c r="U52">
+        <v>9.92799999949056E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>17</v>
       </c>
@@ -6676,8 +9781,20 @@
       <c r="L53">
         <v>11083</v>
       </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R53">
+        <v>17</v>
+      </c>
+      <c r="S53">
+        <v>5.5588799999895799E-2</v>
+      </c>
+      <c r="T53">
+        <v>6.4261000006808899E-3</v>
+      </c>
+      <c r="U53">
+        <v>1.1235000001761301E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>18</v>
       </c>
@@ -6696,8 +9813,20 @@
       <c r="L54">
         <v>17594</v>
       </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R54">
+        <v>18</v>
+      </c>
+      <c r="S54">
+        <v>5.7651099999929997E-2</v>
+      </c>
+      <c r="T54">
+        <v>6.47599999865633E-3</v>
+      </c>
+      <c r="U54">
+        <v>1.32260000100359E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>18</v>
       </c>
@@ -6716,8 +9845,20 @@
       <c r="L55">
         <v>10929</v>
       </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R55">
+        <v>18</v>
+      </c>
+      <c r="S55">
+        <v>6.8273500000941498E-2</v>
+      </c>
+      <c r="T55">
+        <v>9.2332999993231992E-3</v>
+      </c>
+      <c r="U55">
+        <v>1.22609999925771E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>18</v>
       </c>
@@ -6736,8 +9877,20 @@
       <c r="L56">
         <v>11406</v>
       </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R56">
+        <v>18</v>
+      </c>
+      <c r="S56">
+        <v>6.4373600000180803E-2</v>
+      </c>
+      <c r="T56">
+        <v>6.7018999998254003E-3</v>
+      </c>
+      <c r="U56">
+        <v>1.1651000004349E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>19</v>
       </c>
@@ -6756,8 +9909,20 @@
       <c r="L57">
         <v>15181</v>
       </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R57">
+        <v>19</v>
+      </c>
+      <c r="S57">
+        <v>8.4044399998674593E-2</v>
+      </c>
+      <c r="T57">
+        <v>6.8910999998479296E-3</v>
+      </c>
+      <c r="U57">
+        <v>1.4016999994055301E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>19</v>
       </c>
@@ -6776,8 +9941,20 @@
       <c r="L58">
         <v>27058</v>
       </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R58">
+        <v>19</v>
+      </c>
+      <c r="S58">
+        <v>7.8990600000906797E-2</v>
+      </c>
+      <c r="T58">
+        <v>6.7190000008849797E-3</v>
+      </c>
+      <c r="U58">
+        <v>1.13390000115032E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>19</v>
       </c>
@@ -6796,8 +9973,20 @@
       <c r="L59">
         <v>11352</v>
       </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R59">
+        <v>19</v>
+      </c>
+      <c r="S59">
+        <v>7.7761399999872E-2</v>
+      </c>
+      <c r="T59">
+        <v>7.8405000003840507E-3</v>
+      </c>
+      <c r="U59">
+        <v>1.65799999922455E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>20</v>
       </c>
@@ -6816,8 +10005,20 @@
       <c r="L60">
         <v>13331</v>
       </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R60">
+        <v>20</v>
+      </c>
+      <c r="S60">
+        <v>0.11178830000062499</v>
+      </c>
+      <c r="T60">
+        <v>1.3975699999718901E-2</v>
+      </c>
+      <c r="U60">
+        <v>2.0172000004094999E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>20</v>
       </c>
@@ -6836,8 +10037,20 @@
       <c r="L61">
         <v>6036</v>
       </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R61">
+        <v>20</v>
+      </c>
+      <c r="S61">
+        <v>0.13340760000028201</v>
+      </c>
+      <c r="T61">
+        <v>1.40642000005755E-2</v>
+      </c>
+      <c r="U61">
+        <v>1.71260000024631E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>20</v>
       </c>
@@ -6856,8 +10069,20 @@
       <c r="L62">
         <v>20246</v>
       </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R62">
+        <v>20</v>
+      </c>
+      <c r="S62">
+        <v>0.10855310000079001</v>
+      </c>
+      <c r="T62">
+        <v>1.6668799999024399E-2</v>
+      </c>
+      <c r="U62">
+        <v>1.8627000008564201E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>21</v>
       </c>
@@ -6876,8 +10101,20 @@
       <c r="L63">
         <v>5655</v>
       </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R63">
+        <v>21</v>
+      </c>
+      <c r="S63">
+        <v>0.145075899999937</v>
+      </c>
+      <c r="T63">
+        <v>1.1133799998788101E-2</v>
+      </c>
+      <c r="U63">
+        <v>2.0130000011704301E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>21</v>
       </c>
@@ -6896,8 +10133,20 @@
       <c r="L64">
         <v>11962</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R64">
+        <v>21</v>
+      </c>
+      <c r="S64">
+        <v>0.147528100000272</v>
+      </c>
+      <c r="T64">
+        <v>1.35315999996237E-2</v>
+      </c>
+      <c r="U64">
+        <v>1.66180000087479E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>21</v>
       </c>
@@ -6916,8 +10165,20 @@
       <c r="L65">
         <v>8914</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R65">
+        <v>21</v>
+      </c>
+      <c r="S65">
+        <v>0.11603560000003101</v>
+      </c>
+      <c r="T65">
+        <v>9.6223999989888398E-3</v>
+      </c>
+      <c r="U65">
+        <v>1.5894999996817201E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>22</v>
       </c>
@@ -6936,8 +10197,20 @@
       <c r="L66">
         <v>10647</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R66">
+        <v>22</v>
+      </c>
+      <c r="S66">
+        <v>0.256944800001292</v>
+      </c>
+      <c r="T66">
+        <v>1.76602999999886E-2</v>
+      </c>
+      <c r="U66">
+        <v>2.2530000005644901E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>22</v>
       </c>
@@ -6956,8 +10229,20 @@
       <c r="L67">
         <v>8564</v>
       </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R67">
+        <v>22</v>
+      </c>
+      <c r="S67">
+        <v>0.17750999999952899</v>
+      </c>
+      <c r="T67">
+        <v>1.1844199998449699E-2</v>
+      </c>
+      <c r="U67">
+        <v>1.8894000004365801E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>22</v>
       </c>
@@ -6976,8 +10261,20 @@
       <c r="L68">
         <v>5016</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R68">
+        <v>22</v>
+      </c>
+      <c r="S68">
+        <v>0.18630529999973</v>
+      </c>
+      <c r="T68">
+        <v>1.5898999999990299E-2</v>
+      </c>
+      <c r="U68">
+        <v>3.2454000011057299E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>23</v>
       </c>
@@ -6996,8 +10293,20 @@
       <c r="L69">
         <v>9172</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R69">
+        <v>23</v>
+      </c>
+      <c r="S69">
+        <v>0.183990999999878</v>
+      </c>
+      <c r="T69">
+        <v>1.34894999991956E-2</v>
+      </c>
+      <c r="U69">
+        <v>3.01140000010491E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>23</v>
       </c>
@@ -7016,8 +10325,20 @@
       <c r="L70">
         <v>7460</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R70">
+        <v>23</v>
+      </c>
+      <c r="S70">
+        <v>0.214289600000483</v>
+      </c>
+      <c r="T70">
+        <v>1.76272000007884E-2</v>
+      </c>
+      <c r="U70">
+        <v>2.2726999995938899E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>23</v>
       </c>
@@ -7036,8 +10357,20 @@
       <c r="L71">
         <v>17388</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R71">
+        <v>23</v>
+      </c>
+      <c r="S71">
+        <v>0.226707099998748</v>
+      </c>
+      <c r="T71">
+        <v>1.8904200000179099E-2</v>
+      </c>
+      <c r="U71">
+        <v>2.63119999908667E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>24</v>
       </c>
@@ -7056,8 +10389,20 @@
       <c r="L72">
         <v>10742</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R72">
+        <v>24</v>
+      </c>
+      <c r="S72">
+        <v>0.226211699999112</v>
+      </c>
+      <c r="T72">
+        <v>2.06582000009802E-2</v>
+      </c>
+      <c r="U72">
+        <v>2.6280000001861399E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>24</v>
       </c>
@@ -7076,8 +10421,20 @@
       <c r="L73">
         <v>7902</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R73">
+        <v>24</v>
+      </c>
+      <c r="S73">
+        <v>0.26581050000095202</v>
+      </c>
+      <c r="T73">
+        <v>1.51943000000756E-2</v>
+      </c>
+      <c r="U73">
+        <v>3.2457999986945599E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>24</v>
       </c>
@@ -7096,8 +10453,20 @@
       <c r="L74">
         <v>9248</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R74">
+        <v>24</v>
+      </c>
+      <c r="S74">
+        <v>0.29405989999941001</v>
+      </c>
+      <c r="T74">
+        <v>4.6658499999466502E-2</v>
+      </c>
+      <c r="U74">
+        <v>6.4572999999654703E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>25</v>
       </c>
@@ -7116,8 +10485,20 @@
       <c r="L75">
         <v>5526</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R75">
+        <v>25</v>
+      </c>
+      <c r="S75">
+        <v>0.23438739999983199</v>
+      </c>
+      <c r="T75">
+        <v>1.55288999994809E-2</v>
+      </c>
+      <c r="U75">
+        <v>2.3512000007030998E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>25</v>
       </c>
@@ -7136,8 +10517,20 @@
       <c r="L76">
         <v>6085</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R76">
+        <v>25</v>
+      </c>
+      <c r="S76">
+        <v>0.24352469999939699</v>
+      </c>
+      <c r="T76">
+        <v>1.6098599999168E-2</v>
+      </c>
+      <c r="U76">
+        <v>2.3368999991362199E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>25</v>
       </c>
@@ -7156,8 +10549,20 @@
       <c r="L77">
         <v>6778</v>
       </c>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R77">
+        <v>25</v>
+      </c>
+      <c r="S77">
+        <v>0.25036800000088899</v>
+      </c>
+      <c r="T77">
+        <v>1.6862000000401101E-2</v>
+      </c>
+      <c r="U77">
+        <v>2.67459999849961E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>26</v>
       </c>
@@ -7176,8 +10581,20 @@
       <c r="L78">
         <v>10438</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R78">
+        <v>26</v>
+      </c>
+      <c r="S78">
+        <v>0.26424899999983598</v>
+      </c>
+      <c r="T78">
+        <v>1.7029000000547901E-2</v>
+      </c>
+      <c r="U78">
+        <v>2.7990999988105601E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B79">
         <v>26</v>
       </c>
@@ -7196,8 +10613,20 @@
       <c r="L79">
         <v>5525</v>
       </c>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R79">
+        <v>26</v>
+      </c>
+      <c r="S79">
+        <v>0.26905439999973102</v>
+      </c>
+      <c r="T79">
+        <v>1.7492799999672501E-2</v>
+      </c>
+      <c r="U79">
+        <v>2.9635000009875499E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>26</v>
       </c>
@@ -7216,8 +10645,20 @@
       <c r="L80">
         <v>24490</v>
       </c>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R80">
+        <v>26</v>
+      </c>
+      <c r="S80">
+        <v>0.27656249999927202</v>
+      </c>
+      <c r="T80">
+        <v>1.7465000000811401E-2</v>
+      </c>
+      <c r="U80">
+        <v>3.2401999997091402E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>27</v>
       </c>
@@ -7236,8 +10677,20 @@
       <c r="L81">
         <v>9593</v>
       </c>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R81">
+        <v>27</v>
+      </c>
+      <c r="S81">
+        <v>0.31895360000089501</v>
+      </c>
+      <c r="T81">
+        <v>1.8383599999651699E-2</v>
+      </c>
+      <c r="U81">
+        <v>3.2116000002133599E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>27</v>
       </c>
@@ -7256,8 +10709,20 @@
       <c r="L82">
         <v>5754</v>
       </c>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R82">
+        <v>27</v>
+      </c>
+      <c r="S82">
+        <v>0.317734899999777</v>
+      </c>
+      <c r="T82">
+        <v>1.9431900000199599E-2</v>
+      </c>
+      <c r="U82">
+        <v>3.0876000000716799E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>27</v>
       </c>
@@ -7276,8 +10741,20 @@
       <c r="L83">
         <v>5710</v>
       </c>
-    </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R83">
+        <v>27</v>
+      </c>
+      <c r="S83">
+        <v>0.32714139999916297</v>
+      </c>
+      <c r="T83">
+        <v>1.91094000001612E-2</v>
+      </c>
+      <c r="U83">
+        <v>3.1578999987686902E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>28</v>
       </c>
@@ -7296,8 +10773,20 @@
       <c r="L84">
         <v>7321</v>
       </c>
-    </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R84">
+        <v>28</v>
+      </c>
+      <c r="S84">
+        <v>0.40161570000054703</v>
+      </c>
+      <c r="T84">
+        <v>2.2441999999500601E-2</v>
+      </c>
+      <c r="U84">
+        <v>3.55010000021138E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B85">
         <v>28</v>
       </c>
@@ -7316,8 +10805,20 @@
       <c r="L85">
         <v>7129</v>
       </c>
-    </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R85">
+        <v>28</v>
+      </c>
+      <c r="S85">
+        <v>0.44006629999967101</v>
+      </c>
+      <c r="T85">
+        <v>2.9669699999431001E-2</v>
+      </c>
+      <c r="U85">
+        <v>3.8186999991012202E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B86">
         <v>28</v>
       </c>
@@ -7336,8 +10837,20 @@
       <c r="L86">
         <v>7396</v>
       </c>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R86">
+        <v>28</v>
+      </c>
+      <c r="S86">
+        <v>0.49840479999875198</v>
+      </c>
+      <c r="T86">
+        <v>2.7478099998916101E-2</v>
+      </c>
+      <c r="U86">
+        <v>4.4108000001870096E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>29</v>
       </c>
@@ -7356,8 +10869,20 @@
       <c r="L87">
         <v>6501</v>
       </c>
-    </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R87">
+        <v>29</v>
+      </c>
+      <c r="S87">
+        <v>0.76334300000053101</v>
+      </c>
+      <c r="T87">
+        <v>3.91583000000537E-2</v>
+      </c>
+      <c r="U87">
+        <v>6.6917000003741097E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>29</v>
       </c>
@@ -7376,8 +10901,20 @@
       <c r="L88">
         <v>11607</v>
       </c>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R88">
+        <v>29</v>
+      </c>
+      <c r="S88">
+        <v>0.72130870000000802</v>
+      </c>
+      <c r="T88">
+        <v>4.4839500000307397E-2</v>
+      </c>
+      <c r="U88">
+        <v>5.7231999999203201E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>29</v>
       </c>
@@ -7396,8 +10933,20 @@
       <c r="L89">
         <v>8088</v>
       </c>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R89">
+        <v>29</v>
+      </c>
+      <c r="S89">
+        <v>0.69496040000012704</v>
+      </c>
+      <c r="T89">
+        <v>3.5101600000416497E-2</v>
+      </c>
+      <c r="U89">
+        <v>5.4111999997985497E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>30</v>
       </c>
@@ -7416,8 +10965,20 @@
       <c r="L90">
         <v>8405</v>
       </c>
-    </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R90">
+        <v>30</v>
+      </c>
+      <c r="S90">
+        <v>0.87461489999986897</v>
+      </c>
+      <c r="T90">
+        <v>4.6710900000107303E-2</v>
+      </c>
+      <c r="U90">
+        <v>7.8058999988570498E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>30</v>
       </c>
@@ -7436,8 +10997,20 @@
       <c r="L91">
         <v>6462</v>
       </c>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R91">
+        <v>30</v>
+      </c>
+      <c r="S91">
+        <v>0.83100580000063895</v>
+      </c>
+      <c r="T91">
+        <v>4.86452000004646E-2</v>
+      </c>
+      <c r="U91">
+        <v>5.7035999998333803E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B92">
         <v>30</v>
       </c>
@@ -7456,8 +11029,20 @@
       <c r="L92">
         <v>5705</v>
       </c>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R92">
+        <v>30</v>
+      </c>
+      <c r="S92">
+        <v>0.67231859999992505</v>
+      </c>
+      <c r="T92">
+        <v>3.3519899998282199E-2</v>
+      </c>
+      <c r="U92">
+        <v>5.5733999997755702E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B93">
         <v>31</v>
       </c>
@@ -7476,8 +11061,20 @@
       <c r="L93">
         <v>7581</v>
       </c>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R93">
+        <v>31</v>
+      </c>
+      <c r="S93">
+        <v>0.82812250000097198</v>
+      </c>
+      <c r="T93">
+        <v>5.26559999998426E-2</v>
+      </c>
+      <c r="U93">
+        <v>8.0340000004070992E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>31</v>
       </c>
@@ -7496,8 +11093,20 @@
       <c r="L94">
         <v>9207</v>
       </c>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R94">
+        <v>31</v>
+      </c>
+      <c r="S94">
+        <v>1.2326185000001699</v>
+      </c>
+      <c r="T94">
+        <v>4.9365500000931199E-2</v>
+      </c>
+      <c r="U94">
+        <v>8.0063000004884002E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B95">
         <v>31</v>
       </c>
@@ -7516,8 +11125,20 @@
       <c r="L95">
         <v>7947</v>
       </c>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R95">
+        <v>31</v>
+      </c>
+      <c r="S95">
+        <v>0.92004300000007699</v>
+      </c>
+      <c r="T95">
+        <v>3.6860499998510897E-2</v>
+      </c>
+      <c r="U95">
+        <v>5.8439999993424802E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>32</v>
       </c>
@@ -7536,8 +11157,20 @@
       <c r="L96">
         <v>10947</v>
       </c>
-    </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R96">
+        <v>32</v>
+      </c>
+      <c r="S96">
+        <v>1.12997030000042</v>
+      </c>
+      <c r="T96">
+        <v>5.90847999992547E-2</v>
+      </c>
+      <c r="U96">
+        <v>6.9150999988778399E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>32</v>
       </c>
@@ -7556,8 +11189,20 @@
       <c r="L97">
         <v>5523</v>
       </c>
-    </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R97">
+        <v>32</v>
+      </c>
+      <c r="S97">
+        <v>0.93047189999924695</v>
+      </c>
+      <c r="T97">
+        <v>4.9171599999681299E-2</v>
+      </c>
+      <c r="U97">
+        <v>6.99080000049434E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>32</v>
       </c>
@@ -7576,8 +11221,20 @@
       <c r="L98">
         <v>5624</v>
       </c>
-    </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R98">
+        <v>32</v>
+      </c>
+      <c r="S98">
+        <v>0.93831259999933503</v>
+      </c>
+      <c r="T98">
+        <v>4.3159599999853498E-2</v>
+      </c>
+      <c r="U98">
+        <v>6.93930000124964E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>33</v>
       </c>
@@ -7596,8 +11253,20 @@
       <c r="L99">
         <v>7514</v>
       </c>
-    </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R99">
+        <v>33</v>
+      </c>
+      <c r="S99">
+        <v>1.15701529999932</v>
+      </c>
+      <c r="T99">
+        <v>5.7868600000801899E-2</v>
+      </c>
+      <c r="U99">
+        <v>7.4325999994471204E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B100">
         <v>33</v>
       </c>
@@ -7616,8 +11285,20 @@
       <c r="L100">
         <v>9979</v>
       </c>
-    </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R100">
+        <v>33</v>
+      </c>
+      <c r="S100">
+        <v>1.3160381000015999</v>
+      </c>
+      <c r="T100">
+        <v>6.1009299999568598E-2</v>
+      </c>
+      <c r="U100">
+        <v>8.2618999986152596E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B101">
         <v>33</v>
       </c>
@@ -7636,8 +11317,20 @@
       <c r="L101">
         <v>4830</v>
       </c>
-    </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R101">
+        <v>33</v>
+      </c>
+      <c r="S101">
+        <v>1.2200728000007</v>
+      </c>
+      <c r="T101">
+        <v>4.9468600000182002E-2</v>
+      </c>
+      <c r="U101">
+        <v>1.1035500001526E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B102">
         <v>34</v>
       </c>
@@ -7656,8 +11349,20 @@
       <c r="L102">
         <v>8069</v>
       </c>
-    </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R102">
+        <v>34</v>
+      </c>
+      <c r="S102">
+        <v>1.4507386999994101</v>
+      </c>
+      <c r="T102">
+        <v>6.1776000000463599E-2</v>
+      </c>
+      <c r="U102">
+        <v>8.8326000004599302E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B103">
         <v>34</v>
       </c>
@@ -7676,8 +11381,20 @@
       <c r="L103">
         <v>4471</v>
       </c>
-    </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R103">
+        <v>34</v>
+      </c>
+      <c r="S103">
+        <v>1.3559654000000501</v>
+      </c>
+      <c r="T103">
+        <v>5.8997300000555697E-2</v>
+      </c>
+      <c r="U103">
+        <v>8.7691999997332407E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B104">
         <v>34</v>
       </c>
@@ -7696,8 +11413,20 @@
       <c r="L104">
         <v>14249</v>
       </c>
-    </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R104">
+        <v>34</v>
+      </c>
+      <c r="S104">
+        <v>1.3997798000000301</v>
+      </c>
+      <c r="T104">
+        <v>5.3145400001085301E-2</v>
+      </c>
+      <c r="U104">
+        <v>7.9138000000966695E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B105">
         <v>35</v>
       </c>
@@ -7716,8 +11445,20 @@
       <c r="L105">
         <v>9418</v>
       </c>
-    </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R105">
+        <v>35</v>
+      </c>
+      <c r="S105">
+        <v>1.6680464000000901</v>
+      </c>
+      <c r="T105">
+        <v>6.09265000002778E-2</v>
+      </c>
+      <c r="U105">
+        <v>9.4268000011652406E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B106">
         <v>35</v>
       </c>
@@ -7736,8 +11477,20 @@
       <c r="L106">
         <v>7344</v>
       </c>
-    </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R106">
+        <v>35</v>
+      </c>
+      <c r="S106">
+        <v>1.75052479999976</v>
+      </c>
+      <c r="T106">
+        <v>7.6689800000167396E-2</v>
+      </c>
+      <c r="U106">
+        <v>1.36125999997602E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B107">
         <v>35</v>
       </c>
@@ -7756,8 +11509,20 @@
       <c r="L107">
         <v>6142</v>
       </c>
-    </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R107">
+        <v>35</v>
+      </c>
+      <c r="S107">
+        <v>1.67442169999958</v>
+      </c>
+      <c r="T107">
+        <v>6.6569299999173298E-2</v>
+      </c>
+      <c r="U107">
+        <v>1.05696999999054E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B108">
         <v>36</v>
       </c>
@@ -7776,8 +11541,20 @@
       <c r="L108">
         <v>8969</v>
       </c>
-    </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R108">
+        <v>36</v>
+      </c>
+      <c r="S108">
+        <v>2.0031407000005799</v>
+      </c>
+      <c r="T108">
+        <v>7.3838899999827803E-2</v>
+      </c>
+      <c r="U108">
+        <v>9.8468999985925603E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B109">
         <v>36</v>
       </c>
@@ -7796,8 +11573,20 @@
       <c r="L109">
         <v>9052</v>
       </c>
-    </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R109">
+        <v>36</v>
+      </c>
+      <c r="S109">
+        <v>1.8869747999997299</v>
+      </c>
+      <c r="T109">
+        <v>6.7229100000986294E-2</v>
+      </c>
+      <c r="U109">
+        <v>1.00396999987424E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B110">
         <v>36</v>
       </c>
@@ -7816,8 +11605,20 @@
       <c r="L110">
         <v>5772</v>
       </c>
-    </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R110">
+        <v>36</v>
+      </c>
+      <c r="S110">
+        <v>2.2439587000008001</v>
+      </c>
+      <c r="T110">
+        <v>9.7534999998970306E-2</v>
+      </c>
+      <c r="U110">
+        <v>1.6411200000220501E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B111">
         <v>37</v>
       </c>
@@ -7836,8 +11637,20 @@
       <c r="L111">
         <v>11266</v>
       </c>
-    </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R111">
+        <v>37</v>
+      </c>
+      <c r="S111">
+        <v>2.0723293999999401</v>
+      </c>
+      <c r="T111">
+        <v>8.1669099999999106E-2</v>
+      </c>
+      <c r="U111">
+        <v>1.0892899999816999E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B112">
         <v>37</v>
       </c>
@@ -7856,8 +11669,20 @@
       <c r="L112">
         <v>5679</v>
       </c>
-    </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R112">
+        <v>37</v>
+      </c>
+      <c r="S112">
+        <v>2.4821800000008798</v>
+      </c>
+      <c r="T112">
+        <v>9.4323600000279798E-2</v>
+      </c>
+      <c r="U112">
+        <v>1.55440000016824E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B113">
         <v>37</v>
       </c>
@@ -7876,8 +11701,20 @@
       <c r="L113">
         <v>7026</v>
       </c>
-    </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R113">
+        <v>37</v>
+      </c>
+      <c r="S113">
+        <v>2.5082875000007299</v>
+      </c>
+      <c r="T113">
+        <v>8.5073300000658394E-2</v>
+      </c>
+      <c r="U113">
+        <v>1.1828499998955499E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B114">
         <v>38</v>
       </c>
@@ -7896,8 +11733,20 @@
       <c r="L114">
         <v>5045</v>
       </c>
-    </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R114">
+        <v>38</v>
+      </c>
+      <c r="S114">
+        <v>2.4315600000008999</v>
+      </c>
+      <c r="T114">
+        <v>8.7294299999484695E-2</v>
+      </c>
+      <c r="U114">
+        <v>1.32008000000496E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B115">
         <v>38</v>
       </c>
@@ -7916,8 +11765,20 @@
       <c r="L115">
         <v>4917</v>
       </c>
-    </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R115">
+        <v>38</v>
+      </c>
+      <c r="S115">
+        <v>2.44524039999851</v>
+      </c>
+      <c r="T115">
+        <v>0.13377500000024101</v>
+      </c>
+      <c r="U115">
+        <v>1.8163599999752401E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B116">
         <v>38</v>
       </c>
@@ -7936,8 +11797,20 @@
       <c r="L116">
         <v>7952</v>
       </c>
-    </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R116">
+        <v>38</v>
+      </c>
+      <c r="S116">
+        <v>2.5761509999992902</v>
+      </c>
+      <c r="T116">
+        <v>8.8928499999383306E-2</v>
+      </c>
+      <c r="U116">
+        <v>1.5345699999670601E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B117">
         <v>39</v>
       </c>
@@ -7956,8 +11829,20 @@
       <c r="L117">
         <v>6530</v>
       </c>
-    </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R117">
+        <v>39</v>
+      </c>
+      <c r="S117">
+        <v>2.31561959999999</v>
+      </c>
+      <c r="T117">
+        <v>7.9880000001139706E-2</v>
+      </c>
+      <c r="U117">
+        <v>1.20206000010512E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B118">
         <v>39</v>
       </c>
@@ -7976,8 +11861,20 @@
       <c r="L118">
         <v>9337</v>
       </c>
-    </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R118">
+        <v>39</v>
+      </c>
+      <c r="S118">
+        <v>2.8014080000011701</v>
+      </c>
+      <c r="T118">
+        <v>0.110139399999752</v>
+      </c>
+      <c r="U118">
+        <v>1.6635699999824199E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B119">
         <v>39</v>
       </c>
@@ -7996,8 +11893,20 @@
       <c r="L119">
         <v>6786</v>
       </c>
-    </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="R119">
+        <v>39</v>
+      </c>
+      <c r="S119">
+        <v>2.5626458000005998</v>
+      </c>
+      <c r="T119">
+        <v>0.13862609999887299</v>
+      </c>
+      <c r="U119">
+        <v>1.8689500000618801E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B120">
         <v>1</v>
       </c>
@@ -8008,7 +11917,7 @@
         <v>1.5587050999999901</v>
       </c>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B121">
         <v>1</v>
       </c>
@@ -8019,7 +11928,7 @@
         <v>1.58833</v>
       </c>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B122">
         <v>1</v>
       </c>
@@ -8030,7 +11939,7 @@
         <v>2.0274538</v>
       </c>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B123">
         <v>2</v>
       </c>
@@ -8041,7 +11950,7 @@
         <v>1.7498476999999999</v>
       </c>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B124">
         <v>2</v>
       </c>
@@ -8052,7 +11961,7 @@
         <v>2.1457692000000002</v>
       </c>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B125">
         <v>2</v>
       </c>
@@ -8063,7 +11972,7 @@
         <v>2.6046521999999901</v>
       </c>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B126">
         <v>3</v>
       </c>
@@ -8074,7 +11983,7 @@
         <v>2.1455272000000001</v>
       </c>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B127">
         <v>3</v>
       </c>
@@ -8085,7 +11994,7 @@
         <v>2.4663241</v>
       </c>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B128">
         <v>3</v>
       </c>
@@ -9285,11 +13194,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="V1:Y1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
+    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
